--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SteamLibrary\steamapps\common\BATTLETECH\Mods\Core\CustomLocalization\Localization\RogueTech\RU\MechAffinity\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
@@ -10,22 +15,22 @@
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Localization'!$A$1:$E$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Localization!$A$1:$E$120</definedName>
   </definedNames>
-  <calcPr calcId="125725" refMode="R1C1" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="278">
   <si>
     <t>MechAffinity.pilot_assassin.description</t>
   </si>
   <si>
-    <t>+10% Called Shot. +3 OP Accuracy. +15% Upkeep</t>
-  </si>
-  <si>
-    <t>+10% Called Shot. +3 точность Offensive Push; +15% стоимость содержания.</t>
+    <t>"+10% Called Shot. +3 OP Accuracy. +15% Upkeep"</t>
+  </si>
+  <si>
+    <t>"+10% Called Shot. +3 точность Offensive Push; +15% стоимость содержания."</t>
   </si>
   <si>
     <t/>
@@ -34,139 +39,139 @@
     <t>MechAffinity.pilot_assassin.effectData.AthleticQuirkHealth0.Details</t>
   </si>
   <si>
-    <t>Provides + 1 Initiative and several buffs.</t>
-  </si>
-  <si>
-    <t>Даёт +1 к инициативе и несколько других бонусов.</t>
+    <t>"Provides + 1 Initiative and several buffs."</t>
+  </si>
+  <si>
+    <t>"Даёт +1 к инициативе и несколько других бонусов."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_assassin.effectData.AthleticQuirkHealth0.Name</t>
   </si>
   <si>
-    <t>Command Consoles</t>
+    <t>"Command Consoles"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_assassin.quirkName</t>
   </si>
   <si>
-    <t>Assassin</t>
-  </si>
-  <si>
-    <t>Убийца</t>
+    <t>"Assassin"</t>
+  </si>
+  <si>
+    <t>"Убийца"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_athletic.description</t>
   </si>
   <si>
-    <t>+1 Bonus Health. +5% Upkeep</t>
-  </si>
-  <si>
-    <t>+1 к здоровью; +5% стоимость содержания.</t>
+    <t>"+1 Bonus Health. +5% Upkeep"</t>
+  </si>
+  <si>
+    <t>"+1 к здоровью; +5% стоимость содержания."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_athletic.quirkName</t>
   </si>
   <si>
-    <t>Athletic</t>
-  </si>
-  <si>
-    <t>Атлетизм</t>
+    <t>"Athletic"</t>
+  </si>
+  <si>
+    <t>"Атлетизм"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_bookish.description</t>
   </si>
   <si>
-    <t>+5%Sight&amp;Sensors. +5% Pilot Upkeep</t>
-  </si>
-  <si>
-    <t>+5% к сенсорам/обзору; +5% стоимость содержания пилота.</t>
+    <t>"+5%Sight&amp;Sensors. +5% Pilot Upkeep"</t>
+  </si>
+  <si>
+    <t>"+5% к сенсорам/обзору; +5% стоимость содержания пилота."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_bookish.effectData.ComstarQuirkSensor0.Details</t>
   </si>
   <si>
-    <t>Increased Sight/Sensors</t>
-  </si>
-  <si>
-    <t>Улучшенная дальность сенсоров и обзора</t>
+    <t>"Increased Sight/Sensors"</t>
+  </si>
+  <si>
+    <t>"Улучшенная дальность сенсоров и обзора"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_bookish.effectData.ComstarQuirkSensor0.Name</t>
   </si>
   <si>
-    <t>Beagle Probe</t>
+    <t>"Beagle Probe"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_bookish.effectData.ComstarQuirkSpotting1.Details</t>
   </si>
   <si>
-    <t>Increases spotting distance by 50m.</t>
-  </si>
-  <si>
-    <t>Увеличивает дистанцию обнаружения целей на 50 м.</t>
+    <t>"Increases spotting distance by 50m."</t>
+  </si>
+  <si>
+    <t>"Увеличивает дистанцию обнаружения целей на 50 м."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_bookish.effectData.ComstarQuirkSpotting1.Name</t>
   </si>
   <si>
-    <t>SPOTTING DISTANCE INCREASED</t>
-  </si>
-  <si>
-    <t>ДИСТАНЦИЯ ОБНАРУЖЕНИЯ ЦЕЛЕЙ УВЕЛИЧЕНА</t>
+    <t>"SPOTTING DISTANCE INCREASED"</t>
+  </si>
+  <si>
+    <t>"ДИСТАНЦИЯ ОБНАРУЖЕНИЯ ЦЕЛЕЙ УВЕЛИЧЕНА"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_bookish.quirkName</t>
   </si>
   <si>
-    <t>Bookish</t>
-  </si>
-  <si>
-    <t>Любовь к книгам</t>
+    <t>"Bookish"</t>
+  </si>
+  <si>
+    <t>"Любовь к книгам"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_brave.description</t>
   </si>
   <si>
-    <t>+1 Resolve. Improved Panic Resistance. +5% Upkeep.</t>
-  </si>
-  <si>
-    <t>+1 решимость; улучш. сопр. панике; +5% стоимость содержания.</t>
+    <t>"+1 Resolve. Improved Panic Resistance. +5% Upkeep."</t>
+  </si>
+  <si>
+    <t>"+1 решимость; улучш. сопр. панике; +5% стоимость содержания."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_brave.effectData.BraveResolve0.Details</t>
   </si>
   <si>
-    <t>Incoming stability damage reduced by 10%.</t>
-  </si>
-  <si>
-    <t>Получаемый урон устойчивости снижен на 10%.</t>
+    <t>"Incoming stability damage reduced by 10%."</t>
+  </si>
+  <si>
+    <t>"Получаемый урон устойчивости снижен на 10%."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_brave.effectData.BraveResolve0.Name</t>
   </si>
   <si>
-    <t>INCOMING STABILITY DAMAGE DECREASED</t>
-  </si>
-  <si>
-    <t>ВХОДЯЩИЙ УР. УСТОЙЧИВОСТИ ПОНИЖЕН</t>
+    <t>"INCOMING STABILITY DAMAGE DECREASED"</t>
+  </si>
+  <si>
+    <t>"ВХОДЯЩИЙ УР. УСТОЙЧИВОСТИ ПОНИЖЕН"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_brave.quirkName</t>
   </si>
   <si>
-    <t>Brave</t>
-  </si>
-  <si>
-    <t>Храбрость</t>
+    <t>"Brave"</t>
+  </si>
+  <si>
+    <t>"Храбрость"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_cautious.description</t>
   </si>
   <si>
-    <t>+1 Evasion Generated. -1 Accuracy.</t>
-  </si>
-  <si>
-    <t>+1 шеврон уклонения; -1 точность.</t>
+    <t>"+1 Evasion Generated. -1 Accuracy."</t>
+  </si>
+  <si>
+    <t>"+1 шеврон уклонения; -1 точность."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_cautious.effectData.CautiousQuirkEvasion0.Details</t>
@@ -184,55 +189,55 @@
     <t>MechAffinity.pilot_cautious.quirkName</t>
   </si>
   <si>
-    <t>Cautious</t>
-  </si>
-  <si>
-    <t>Осторожность</t>
+    <t>"Cautious"</t>
+  </si>
+  <si>
+    <t>"Осторожность"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_command.description</t>
   </si>
   <si>
-    <t>+1 Lance Resolve. +1 Morale. +10% Pilot Upkeep</t>
-  </si>
-  <si>
-    <t>+1 решимость отряда; +1 мораль; +10% стоимость содержания пилота.</t>
+    <t>"+1 Lance Resolve. +1 Morale. +10% Pilot Upkeep"</t>
+  </si>
+  <si>
+    <t>"+1 решимость отряда; +1 мораль; +10% стоимость содержания пилота."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_command.effectData.CommanderQuirkResolve0.Details</t>
   </si>
   <si>
-    <t>Provides a bonus to actions that generate Morale.</t>
-  </si>
-  <si>
-    <t>Даёт бонус к действиям, которые повышают мораль.</t>
+    <t>"Provides a bonus to actions that generate Morale."</t>
+  </si>
+  <si>
+    <t>"Даёт бонус к действиям, которые повышают мораль."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_command.effectData.CommanderQuirkResolve0.Name</t>
   </si>
   <si>
-    <t>MORALE GENERATION INCREASED</t>
-  </si>
-  <si>
-    <t>РОСТ МОРАЛИ УВЕЛИЧЕН</t>
+    <t>"MORALE GENERATION INCREASED"</t>
+  </si>
+  <si>
+    <t>"РОСТ МОРАЛИ УВЕЛИЧЕН"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_command.quirkName</t>
   </si>
   <si>
-    <t>Commander</t>
-  </si>
-  <si>
-    <t>Командир копья</t>
+    <t>"Commander"</t>
+  </si>
+  <si>
+    <t>"Командир копья"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_comstar.description</t>
   </si>
   <si>
-    <t>+5%Sight&amp;Sensors. +0.5 MechTech. +10% Pilot Upkeep</t>
-  </si>
-  <si>
-    <t>+5% к сенсорам/обзору; +0.5 мехтех; +10% стоимость содержания пилота.</t>
+    <t>"+5%Sight&amp;Sensors. +0.5 MechTech. +10% Pilot Upkeep"</t>
+  </si>
+  <si>
+    <t>"+5% к сенсорам/обзору; +0.5 мехтех; +10% стоимость содержания пилота."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_comstar.effectData.ComstarQuirkSensor0.Details</t>
@@ -250,37 +255,37 @@
     <t>MechAffinity.pilot_comstar.quirkName</t>
   </si>
   <si>
-    <t>Ex-Comstar</t>
-  </si>
-  <si>
-    <t>Служба в КомСтар</t>
+    <t>"Ex-Comstar"</t>
+  </si>
+  <si>
+    <t>"Служба в КомСтар"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_criminal.description</t>
   </si>
   <si>
-    <t>10% Chance to Steal 1000 Cbills From OR For You.</t>
-  </si>
-  <si>
-    <t>Шанс 10% украсть 1000 Cbills у вас ИЛИ для вас.</t>
+    <t>"10% Chance to Steal 1000 Cbills From OR For You."</t>
+  </si>
+  <si>
+    <t>"Шанс 10% украсть 1000 Cbills у вас ИЛИ для вас."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_criminal.quirkName</t>
   </si>
   <si>
-    <t>Criminal</t>
-  </si>
-  <si>
-    <t>Связи с преступностью</t>
+    <t>"Criminal"</t>
+  </si>
+  <si>
+    <t>"Связи с преступностью"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_dependable.description</t>
   </si>
   <si>
-    <t>-5% Stability Taken. Improved Panic Resist. +5% Upkeep</t>
-  </si>
-  <si>
-    <t>-5% получ. ур. стаб.; улучш. сопр. панике; +5% стоимость содержания.</t>
+    <t>"-5% Stability Taken. Improved Panic Resist. +5% Upkeep"</t>
+  </si>
+  <si>
+    <t>"-5% получ. ур. стаб.; улучш. сопр. панике; +5% стоимость содержания."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_dependable.effectData.DependableStabilityQuirk0.Details</t>
@@ -292,19 +297,19 @@
     <t>MechAffinity.pilot_dependable.quirkName</t>
   </si>
   <si>
-    <t>Dependable</t>
-  </si>
-  <si>
-    <t>Надёжность</t>
+    <t>"Dependable"</t>
+  </si>
+  <si>
+    <t>"Надёжность"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_disgraced.description</t>
   </si>
   <si>
-    <t>+1 ECM Shield and Probe. -1 Morale.</t>
-  </si>
-  <si>
-    <t>+1 ECM укрытие и подавление; -1 мораль.</t>
+    <t>"+1 ECM Shield and Probe. -1 Morale."</t>
+  </si>
+  <si>
+    <t>"+1 ECM укрытие и подавление; -1 мораль."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_disgraced.effectData.DisgracedAS2.Details</t>
@@ -328,37 +333,37 @@
     <t>MechAffinity.pilot_disgraced.quirkName</t>
   </si>
   <si>
-    <t>Disgraced</t>
-  </si>
-  <si>
-    <t>Бесчестность</t>
+    <t>"Disgraced"</t>
+  </si>
+  <si>
+    <t>"Бесчестность"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_dishonest.description</t>
   </si>
   <si>
-    <t>5% Chance to Steal 500 Cbills From OR For You.</t>
-  </si>
-  <si>
-    <t>Шанс 5% украсть 500 Cbills у вас ИЛИ для вас.</t>
+    <t>"5% Chance to Steal 500 Cbills From OR For You."</t>
+  </si>
+  <si>
+    <t>"Шанс 5% украсть 500 Cbills у вас ИЛИ для вас."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_dishonest.quirkName</t>
   </si>
   <si>
-    <t>Dishonest</t>
-  </si>
-  <si>
-    <t>Непорядочность</t>
+    <t>"Dishonest"</t>
+  </si>
+  <si>
+    <t>"Непорядочность"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_drunk.description</t>
   </si>
   <si>
-    <t>+5% Stability Taken. Avoids Panic Eject. +1 OP Accuracy.</t>
-  </si>
-  <si>
-    <t>+5% получ. ур. стабильности; не катапультируется при панике; +1 точность Offensive Push.</t>
+    <t>"+5% Stability Taken. Avoids Panic Eject. +1 OP Accuracy."</t>
+  </si>
+  <si>
+    <t>"+5% получ. ур. стабильности; не катапультируется при панике; +1 точность Offensive Push."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_drunk.effectData.DrunkStabilityQuirk0.Details</t>
@@ -370,31 +375,31 @@
     <t>MechAffinity.pilot_drunk.quirkName</t>
   </si>
   <si>
-    <t>Drunk</t>
-  </si>
-  <si>
-    <t>Алкоголизм</t>
+    <t>"Drunk"</t>
+  </si>
+  <si>
+    <t>"Алкоголизм"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_gladiator.description</t>
   </si>
   <si>
-    <t>+5% Punch/Kick/Phys Melee Damage % Stability. +20% Upkeep.</t>
-  </si>
-  <si>
-    <t>+5% урон/ур.стаб. от Punch/Kick/Phys рукопашной; +20% стоимость содержания.</t>
+    <t>"+5% Punch/Kick/Phys Melee Damage % Stability. +20% Upkeep."</t>
+  </si>
+  <si>
+    <t>"+5% урон/ур.стаб. от Punch/Kick/Phys рукопашной; +20% стоимость содержания."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_gladiator.effectData.TSM_Damage_Kick4.Details</t>
   </si>
   <si>
-    <t>Damage Modifier</t>
+    <t>"Damage Modifier"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_gladiator.effectData.TSM_Damage_Kick4.Name</t>
   </si>
   <si>
-    <t>Melee Weapon Damage Mod</t>
+    <t>"Melee Weapon Damage Mod"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_gladiator.effectData.TSM_Damage_Punch2.Details</t>
@@ -430,52 +435,52 @@
     <t>MechAffinity.pilot_gladiator.quirkName</t>
   </si>
   <si>
-    <t>Gladiator</t>
-  </si>
-  <si>
-    <t>Гладиатор</t>
+    <t>"Gladiator"</t>
+  </si>
+  <si>
+    <t>"Гладиатор"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_honest.description</t>
   </si>
   <si>
-    <t>+1 Morale. +5% Upkeep.</t>
-  </si>
-  <si>
-    <t>+1 мораль; +5% стоимость содержания.</t>
+    <t>"+1 Morale. +5% Upkeep."</t>
+  </si>
+  <si>
+    <t>"+1 мораль; +5% стоимость содержания."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_honest.quirkName</t>
   </si>
   <si>
-    <t>Honest</t>
-  </si>
-  <si>
-    <t>Честность</t>
+    <t>"Honest"</t>
+  </si>
+  <si>
+    <t>"Честность"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_jinxed.description</t>
   </si>
   <si>
-    <t>+1 Evasion Gained &amp; Max. -1 Defense.</t>
-  </si>
-  <si>
-    <t>+1 шеврон уклонения и +1 макс. укл.; -1 защита.</t>
+    <t>"+1 Evasion Gained &amp; Max. -1 Defense."</t>
+  </si>
+  <si>
+    <t>"+1 шеврон уклонения и +1 макс. укл.; -1 защита."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_jinxed.effectData.GainEvasion1.Details</t>
   </si>
   <si>
-    <t>This unit generates an extra EVASIVE charge from movement actions (up to its maximum).</t>
-  </si>
-  <si>
-    <t>Носитель генерирует доп. шеврон уворота от любого движения (до своего максимума).</t>
+    <t>"This unit generates an extra EVASIVE charge from movement actions (up to its maximum)."</t>
+  </si>
+  <si>
+    <t>"Носитель генерирует доп. шеврон уворота от любого движения (до своего максимума)."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_jinxed.effectData.GainEvasion1.Name</t>
   </si>
   <si>
-    <t>EVASIVE MOVE</t>
+    <t>"EVASIVE MOVE"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_jinxed.effectData.MaxEvasion0.Details</t>
@@ -487,34 +492,34 @@
     <t>MechAffinity.pilot_jinxed.effectData.StatusEffect-Defense_ToHit-T32.Details</t>
   </si>
   <si>
-    <t>Provides a penalty to all attacks against this unit.</t>
-  </si>
-  <si>
-    <t>Даёт штраф ко всем атакам по носителю.</t>
+    <t>"Provides a penalty to all attacks against this unit."</t>
+  </si>
+  <si>
+    <t>"Даёт штраф ко всем атакам по носителю."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_jinxed.effectData.StatusEffect-Defense_ToHit-T32.Name</t>
   </si>
   <si>
-    <t>HARDER TO HIT</t>
+    <t>"HARDER TO HIT"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_jinxed.quirkName</t>
   </si>
   <si>
-    <t>Jinxed</t>
-  </si>
-  <si>
-    <t>Невезение</t>
+    <t>"Jinxed"</t>
+  </si>
+  <si>
+    <t>"Невезение"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_klutz.description</t>
   </si>
   <si>
-    <t>+1 Evasion Gain. May Eject when Knockdown.</t>
-  </si>
-  <si>
-    <t>+1 шеврон уклонения; шанс случайно катапультироваться при падении.</t>
+    <t>"+1 Evasion Gain. May Eject when Knockdown."</t>
+  </si>
+  <si>
+    <t>"+1 шеврон уклонения; шанс случайно катапультироваться при падении."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_klutz.effectData.KlutzEvasion0.Details</t>
@@ -526,91 +531,91 @@
     <t>MechAffinity.pilot_klutz.quirkName</t>
   </si>
   <si>
-    <t>Klutz</t>
-  </si>
-  <si>
-    <t>Растяпа</t>
+    <t>"Klutz"</t>
+  </si>
+  <si>
+    <t>"Растяпа"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_lostech.description</t>
   </si>
   <si>
-    <t>+0.5 MechTech. Reduces Cost and Upkeep for Argo System Upgrades by 5%. 10% Pilot Upkeep.</t>
-  </si>
-  <si>
-    <t>+0.5 мехтех; на 5% ниже цена и стоимость содержания улучшений Арго; 10% содержание пилота.</t>
+    <t>"+0.5 MechTech. Reduces Cost and Upkeep for Argo System Upgrades by 5%. 10% Pilot Upkeep."</t>
+  </si>
+  <si>
+    <t>"+0.5 мехтех; на 5% ниже цена и стоимость содержания улучшений Арго; 10% содержание пилота."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_lostech.quirkName</t>
   </si>
   <si>
-    <t>LosTech Experience</t>
-  </si>
-  <si>
-    <t>Знание утерянных технологий</t>
+    <t>"LosTech Experience"</t>
+  </si>
+  <si>
+    <t>"Знание утерянных технологий"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_lucky.description</t>
   </si>
   <si>
-    <t>+0.5 Clustering. -10% Jam Chance Multi. +10% Upkeep</t>
-  </si>
-  <si>
-    <t>+2 кучность стрельбы; -10% шанс клина; +10% стоимость содержания.</t>
+    <t>"+0.5 Clustering. -10% Jam Chance Multi. +10% Upkeep"</t>
+  </si>
+  <si>
+    <t>"+2 кучность стрельбы; -10% шанс клина; +10% стоимость содержания."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_lucky.effectData.LuckyJamChance0.Details</t>
   </si>
   <si>
-    <t>Called Shots twice as reliable</t>
-  </si>
-  <si>
-    <t>Прицельные выстрелы вдвое надежнее</t>
+    <t>"Called Shots twice as reliable"</t>
+  </si>
+  <si>
+    <t>"Прицельные выстрелы вдвое надежнее"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_lucky.effectData.LuckyJamChance0.Name</t>
   </si>
   <si>
-    <t>Improved Called Shot</t>
-  </si>
-  <si>
-    <t>Улучшенный прицельный выстрел</t>
+    <t>"Improved Called Shot"</t>
+  </si>
+  <si>
+    <t>"Улучшенный прицельный выстрел"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_lucky.effectData.StatusEffect_BCCluster1.Details</t>
   </si>
   <si>
-    <t>Substantially increases the clustering of this unit's LRM weapons.</t>
-  </si>
-  <si>
-    <t>Существенно увеличивает кучность огня из орудий LRM типа.</t>
+    <t>"Substantially increases the clustering of this unit's LRM weapons."</t>
+  </si>
+  <si>
+    <t>"Существенно увеличивает кучность огня из орудий LRM типа."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_lucky.effectData.StatusEffect_BCCluster1.Name</t>
   </si>
   <si>
-    <t>Laser Weapon Cluster Chance Improved</t>
-  </si>
-  <si>
-    <t>Кучность выстрелов из лазерного оружия повышена</t>
+    <t>"Laser Weapon Cluster Chance Improved"</t>
+  </si>
+  <si>
+    <t>"Кучность выстрелов из лазерного оружия повышена"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_lucky.quirkName</t>
   </si>
   <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>Везение</t>
+    <t>"Lucky"</t>
+  </si>
+  <si>
+    <t>"Везение"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_mechwarrior.description</t>
   </si>
   <si>
-    <t>+1 Initiative. +5% Upkeep</t>
-  </si>
-  <si>
-    <t>+1 инициатива; +5% стоимость содержания.</t>
+    <t>"+1 Initiative. +5% Upkeep"</t>
+  </si>
+  <si>
+    <t>"+1 инициатива; +5% стоимость содержания."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_mechwarrior.effectData.MechwarriorQuirkInitiative0.Details</t>
@@ -622,37 +627,37 @@
     <t>MechAffinity.pilot_mechwarrior.quirkName</t>
   </si>
   <si>
-    <t>Mechwarrior</t>
-  </si>
-  <si>
-    <t>Мехвоин</t>
+    <t>"Mechwarrior"</t>
+  </si>
+  <si>
+    <t>"Мехвоин"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_merchant.description</t>
   </si>
   <si>
-    <t>Reduces Argo Upkeep by 5%. 5% Chance for 1000Cbills/Day. 10% Pilot Upkeep.</t>
-  </si>
-  <si>
-    <t>На 5% ниже стоимость содержания Арго; шанс 5% получить 1000 Cbills каждый день; 10% стоимость содержания пилота.</t>
+    <t>"Reduces Argo Upkeep by 5%. 5% Chance for 1000Cbills/Day. 10% Pilot Upkeep."</t>
+  </si>
+  <si>
+    <t>"На 5% ниже стоимость содержания Арго; шанс 5% получить 1000 Cbills каждый день; 10% стоимость содержания пилота."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_merchant.quirkName</t>
   </si>
   <si>
-    <t>Merchant</t>
-  </si>
-  <si>
-    <t>Торговец</t>
+    <t>"Merchant"</t>
+  </si>
+  <si>
+    <t>"Торговец"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_military.description</t>
   </si>
   <si>
-    <t>+1 Bonus Health. -1 Recoil. +1 OP Accuracy. +15% Upkeep</t>
-  </si>
-  <si>
-    <t>+1 бонус к здоровью; -1 отдача; +1 точность Offensive Push; +15% стоимость содержания.</t>
+    <t>"+1 Bonus Health. -1 Recoil. +1 OP Accuracy. +15% Upkeep"</t>
+  </si>
+  <si>
+    <t>"+1 бонус к здоровью; -1 отдача; +1 точность Offensive Push; +15% стоимость содержания."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_military.effectData.MilitaryQuirkRecoil0.Details</t>
@@ -664,37 +669,37 @@
     <t>MechAffinity.pilot_military.quirkName</t>
   </si>
   <si>
-    <t>Ex-Military</t>
-  </si>
-  <si>
-    <t>Армейская служба</t>
+    <t>"Ex-Military"</t>
+  </si>
+  <si>
+    <t>"Армейская служба"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_noble.description</t>
   </si>
   <si>
-    <t>Reduces Cost and Upkeep for Argo Morale and Med Upgrades by 5%. 15% Pilot Upkeep.</t>
-  </si>
-  <si>
-    <t>На 5% ниже цена и стоимость содержания улучшений Арго, связанных с медициной и моралью; 15% стоимость содержания пилота.</t>
+    <t>"Reduces Cost and Upkeep for Argo Morale and Med Upgrades by 5%. 15% Pilot Upkeep."</t>
+  </si>
+  <si>
+    <t>"На 5% ниже цена и стоимость содержания улучшений Арго, связанных с медициной и моралью; 15% стоимость содержания пилота."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_noble.quirkName</t>
   </si>
   <si>
-    <t>Noble</t>
-  </si>
-  <si>
-    <t>Аристократия</t>
+    <t>"Noble"</t>
+  </si>
+  <si>
+    <t>"Аристократия"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_officer.description</t>
   </si>
   <si>
-    <t>+2.5% Lance Sight&amp;Sensors. +10% Upkeep</t>
-  </si>
-  <si>
-    <t>+2.5% к сенсорам/обзору отряда; +10% стоимость содержания.</t>
+    <t>"+2.5% Lance Sight&amp;Sensors. +10% Upkeep"</t>
+  </si>
+  <si>
+    <t>"+2.5% к сенсорам/обзору отряда; +10% стоимость содержания."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_officer.effectData.OfficerLanceSensors0.Details</t>
@@ -712,34 +717,34 @@
     <t>MechAffinity.pilot_officer.quirkName</t>
   </si>
   <si>
-    <t>Officer</t>
-  </si>
-  <si>
-    <t>Офицер</t>
+    <t>"Officer"</t>
+  </si>
+  <si>
+    <t>"Офицер"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_reckless.description</t>
   </si>
   <si>
-    <t>+1 Evasion Ignore. -1 Max Evasion.</t>
-  </si>
-  <si>
-    <t>Игнорирует +1 шеврон уклонения; -1 макс. уклонение.</t>
+    <t>"+1 Evasion Ignore. -1 Max Evasion."</t>
+  </si>
+  <si>
+    <t>"Игнорирует +1 шеврон уклонения; -1 макс. уклонение."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_reckless.effectData.RecklessQuirkEvaIgnore0.Details</t>
   </si>
   <si>
-    <t>+2Acc, +50% Crit, +30% Range, -50%MinRange for ALL Weapons.</t>
-  </si>
-  <si>
-    <t>+2 тчн., +50% криты, +30% дальность, -50% мин. дист. для всего вооружения.</t>
+    <t>"+2Acc, +50% Crit, +30% Range, -50%MinRange for ALL Weapons."</t>
+  </si>
+  <si>
+    <t>"+2 тчн., +50% криты, +30% дальность, -50% мин. дист. для всего вооружения."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_reckless.effectData.RecklessQuirkEvaIgnore0.Name</t>
   </si>
   <si>
-    <t>CLAN TTS</t>
+    <t>"CLAN TTS"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_reckless.effectData.RecklessQuirkEvaPenalty1.Details</t>
@@ -751,100 +756,100 @@
     <t>MechAffinity.pilot_reckless.quirkName</t>
   </si>
   <si>
-    <t>Reckless</t>
-  </si>
-  <si>
-    <t>Безрассудство</t>
+    <t>"Reckless"</t>
+  </si>
+  <si>
+    <t>"Безрассудство"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_spacer.description</t>
   </si>
   <si>
-    <t>Reduces Argo Upkeep and Upgrade Costs by 5%. 10% Pilot Upkeep.</t>
-  </si>
-  <si>
-    <t>На 5% ниже цена и стоимость содержания улучшений Арго; 10% стоимость содержания пилота.</t>
+    <t>"Reduces Argo Upkeep and Upgrade Costs by 5%. 10% Pilot Upkeep."</t>
+  </si>
+  <si>
+    <t>"На 5% ниже цена и стоимость содержания улучшений Арго; 10% стоимость содержания пилота."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_spacer.quirkName</t>
   </si>
   <si>
-    <t>Spacer</t>
-  </si>
-  <si>
-    <t>Космонавт</t>
+    <t>"Spacer"</t>
+  </si>
+  <si>
+    <t>"Космонавт"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_tech.description</t>
   </si>
   <si>
-    <t>+1 MechTech. Reduces Cost and Upkeep for Mechbay Upgrades by 5%. 10% Pilot Upkeep.</t>
-  </si>
-  <si>
-    <t>+1 мехтех; на 5% ниже цена и стоимость содержания мехотсеков; 10% стоимость содержания пилота.</t>
+    <t>"+1 MechTech. Reduces Cost and Upkeep for Mechbay Upgrades by 5%. 10% Pilot Upkeep."</t>
+  </si>
+  <si>
+    <t>"+1 мехтех; на 5% ниже цена и стоимость содержания мехотсеков; 10% стоимость содержания пилота."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_tech.quirkName</t>
   </si>
   <si>
-    <t>Technician</t>
-  </si>
-  <si>
-    <t>Тех</t>
+    <t>"Technician"</t>
+  </si>
+  <si>
+    <t>"Тех"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_wealthy.description</t>
   </si>
   <si>
-    <t>-50% Pilot Upkeep.</t>
-  </si>
-  <si>
-    <t>-50% стоимость содержания пилота.</t>
+    <t>"-50% Pilot Upkeep."</t>
+  </si>
+  <si>
+    <t>"-50% стоимость содержания пилота."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_wealthy.quirkName</t>
   </si>
   <si>
-    <t>Wealthy</t>
-  </si>
-  <si>
-    <t>Обеспеченность</t>
+    <t>"Wealthy"</t>
+  </si>
+  <si>
+    <t>"Обеспеченность"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_painshunt.description</t>
   </si>
   <si>
-    <t>Pilot is Immune to Injuries from Overheat, Internal Explosion and DNI Feedback. 25% Pilot Upkeep.</t>
-  </si>
-  <si>
-    <t>У пилота иммунитет к травмам от перегрева, внутренних подрывов и обратной отдачи от DNI. 25% стоимость содержания пилота.</t>
+    <t>"Pilot is Immune to Injuries from Overheat, Internal Explosion and DNI Feedback. 25% Pilot Upkeep."</t>
+  </si>
+  <si>
+    <t>"У пилота иммунитет к травмам от перегрева, внутренних подрывов и обратной отдачи от DNI. 25% стоимость содержания пилота."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_painshunt.quirkName</t>
   </si>
   <si>
-    <t>Pain Shunt</t>
-  </si>
-  <si>
-    <t>Шунтирование</t>
+    <t>"Pain Shunt"</t>
+  </si>
+  <si>
+    <t>"Шунтирование"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_athletic.effectData.QuirkAthleticKillThreshold0.Details</t>
   </si>
   <si>
-    <t>Heat generation reduced by 10%</t>
-  </si>
-  <si>
-    <t>Нагрев понижен на 10%</t>
+    <t>"Heat generation reduced by 10%"</t>
+  </si>
+  <si>
+    <t>"Нагрев понижен на 10%"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_athletic.effectData.QuirkAthleticKillThreshold0.Name</t>
   </si>
   <si>
-    <t>Decreases Heat Generation</t>
-  </si>
-  <si>
-    <t>Снижает нагрев</t>
+    <t>"Decreases Heat Generation"</t>
+  </si>
+  <si>
+    <t>"Снижает нагрев"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_military.effectData.QuirkMilitaryKillThreshold1.Details</t>
@@ -856,9 +861,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -884,12 +888,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -950,7 +953,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -982,9 +985,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1016,6 +1020,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1191,2125 +1196,2130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="78.28515625" customWidth="1" style="3"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="3"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="3"/>
+    <col min="1" max="3" width="78.28515625" style="2" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3">
+      <c r="D1" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="E25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D28" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="E28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="E29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="E30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D31" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="E32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="E33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="D34" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="E34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="D36" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="E36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="D37" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="E37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D38" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="D39" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="E39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="D40" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="E40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="E41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="E42" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="E43" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="E44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="E45" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="E46" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="E48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="E49" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D50" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="E50" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="D51" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="E51" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="E52" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="D53" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="E53" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="D54" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="E54" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="D55" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="E55" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="D56" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="E56" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="E57" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="E58" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="E59" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="D60" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="E60" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="D61" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="E61" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="E62" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="3">
+      <c r="D63" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="E63" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="3">
+      <c r="D64" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="E64" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="3">
+      <c r="D65" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="E65" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D66" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="E66" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="3">
+      <c r="D67" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="E67" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="D68" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="E68" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="3">
+      <c r="D69" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="E69" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="3">
+      <c r="D70" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="E70" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="3">
+      <c r="D71" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="E71" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="E72" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="3">
+      <c r="D73" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="E73" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="3">
+      <c r="D74" s="3">
         <v>74</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="E74" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="3">
+      <c r="D75" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="E75" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3">
+      <c r="D76" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="E76" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="3">
+      <c r="D77" s="3">
         <v>77</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="E77" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="3">
+      <c r="D78" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="E78" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="3">
+      <c r="D79" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="E79" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="3">
+      <c r="D80" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="E80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3">
+      <c r="D81" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="s">
+      <c r="E81" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="3">
+      <c r="D82" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="s">
+      <c r="E82" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="D83" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="E83" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="3">
+      <c r="D84" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="s">
+      <c r="E84" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="3">
+      <c r="D85" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="E85" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="3">
+      <c r="D86" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="E86" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="3">
+      <c r="D87" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="E87" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="3">
+      <c r="D88" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="E88" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="E89" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="3">
+      <c r="D90" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="s">
+      <c r="E90" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="D91" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="s">
+      <c r="E91" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="3">
+      <c r="D92" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="s">
+      <c r="E92" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="3">
+      <c r="D93" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="s">
+      <c r="E93" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="E94" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="3">
+      <c r="D95" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="E95" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="3">
+      <c r="D96" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="E96" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="3">
+      <c r="D97" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="E97" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="3">
+      <c r="D98" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="s">
+      <c r="E98" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="3">
+      <c r="D99" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="s">
+      <c r="E99" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="D100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="s">
+      <c r="E100" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="D101" s="3">
         <v>101</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="s">
+      <c r="E101" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="D102" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="3" t="s">
+      <c r="E102" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="3">
+      <c r="D103" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="s">
+      <c r="E103" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="3">
+      <c r="D104" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="s">
+      <c r="E104" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="3">
+      <c r="D105" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="s">
+      <c r="E105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="3">
+      <c r="D106" s="3">
         <v>106</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="s">
+      <c r="E106" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="3">
+      <c r="D107" s="3">
         <v>107</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="s">
+      <c r="E107" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="3">
+      <c r="D108" s="3">
         <v>108</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="s">
+      <c r="E108" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" s="3">
+      <c r="D109" s="3">
         <v>109</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="s">
+      <c r="E109" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E110" s="3">
+      <c r="D110" s="3">
         <v>110</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="s">
+      <c r="E110" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="3">
+      <c r="D111" s="3">
         <v>111</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="s">
+      <c r="E111" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112" s="3">
+      <c r="D112" s="3">
         <v>112</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="s">
+      <c r="E112" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E113" s="3">
+      <c r="D113" s="3">
         <v>113</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="s">
+      <c r="E113" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E114" s="3">
+      <c r="D114" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="s">
+      <c r="E114" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E115" s="3">
+      <c r="D115" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="s">
+      <c r="E115" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" s="3">
+      <c r="D116" s="3">
         <v>116</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="s">
+      <c r="E116" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E117" s="3">
+      <c r="D117" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="3" t="s">
+      <c r="E117" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E118" s="3">
+      <c r="D118" s="3">
         <v>118</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="3" t="s">
+      <c r="E118" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E119" s="3">
+      <c r="D119" s="3">
         <v>119</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="3" t="s">
+      <c r="E119" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E120" s="3">
+      <c r="D120" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="s">
+      <c r="E120" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" s="3">
+      <c r="D121" s="3">
         <v>121</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="3" t="s">
+      <c r="E121" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E122" s="3">
+      <c r="D122" s="3">
         <v>122</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="s">
+      <c r="E122" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E123" s="3">
+      <c r="D123" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="3" t="s">
+      <c r="E123" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E124" s="3">
+      <c r="D124" s="3">
         <v>124</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="404">
   <si>
     <t>MechAffinity.pilot_assassin.description</t>
   </si>
@@ -30,7 +30,7 @@
     <t>"+10% Called Shot. +3 OP Accuracy. +15% Upkeep"</t>
   </si>
   <si>
-    <t>"+10% Called Shot. +3 точность Offensive Push; +15% стоимость содержания."</t>
+    <t>"+10% прицельный залп. +3 точность Offensive Push; +15% стоимость содержания."</t>
   </si>
   <si>
     <t/>
@@ -42,7 +42,7 @@
     <t>"Provides + 1 Initiative and several buffs."</t>
   </si>
   <si>
-    <t>"Даёт +1 к инициативе и несколько других бонусов."</t>
+    <t>"Даёт +1 к инициативе и несколько других баффов."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_assassin.effectData.AthleticQuirkHealth0.Name</t>
@@ -51,6 +51,9 @@
     <t>"Command Consoles"</t>
   </si>
   <si>
+    <t>"Командные консоли"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_assassin.quirkName</t>
   </si>
   <si>
@@ -228,7 +231,7 @@
     <t>"Commander"</t>
   </si>
   <si>
-    <t>"Командир копья"</t>
+    <t>"Командующий"</t>
   </si>
   <si>
     <t>MechAffinity.pilot_comstar.description</t>
@@ -267,7 +270,7 @@
     <t>"10% Chance to Steal 1000 Cbills From OR For You."</t>
   </si>
   <si>
-    <t>"Шанс 10% украсть 1000 Cbills у вас ИЛИ для вас."</t>
+    <t>"Шанс 10% украсть 1000 C-bills у вас ИЛИ для вас."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_criminal.quirkName</t>
@@ -345,7 +348,7 @@
     <t>"5% Chance to Steal 500 Cbills From OR For You."</t>
   </si>
   <si>
-    <t>"Шанс 5% украсть 500 Cbills у вас ИЛИ для вас."</t>
+    <t>"Шанс 5% украсть 500 C-bills у вас ИЛИ для вас."</t>
   </si>
   <si>
     <t>MechAffinity.pilot_dishonest.quirkName</t>
@@ -363,9 +366,6 @@
     <t>"+5% Stability Taken. Avoids Panic Eject. +1 OP Accuracy."</t>
   </si>
   <si>
-    <t>"+5% получ. ур. стабильности; не катапультируется при панике; +1 точность Offensive Push."</t>
-  </si>
-  <si>
     <t>MechAffinity.pilot_drunk.effectData.DrunkStabilityQuirk0.Details</t>
   </si>
   <si>
@@ -387,21 +387,24 @@
     <t>"+5% Punch/Kick/Phys Melee Damage % Stability. +20% Upkeep."</t>
   </si>
   <si>
-    <t>"+5% урон/ур.стаб. от Punch/Kick/Phys рукопашной; +20% стоимость содержания."</t>
-  </si>
-  <si>
     <t>MechAffinity.pilot_gladiator.effectData.TSM_Damage_Kick4.Details</t>
   </si>
   <si>
     <t>"Damage Modifier"</t>
   </si>
   <si>
+    <t>"Модификатор урона"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_gladiator.effectData.TSM_Damage_Kick4.Name</t>
   </si>
   <si>
     <t>"Melee Weapon Damage Mod"</t>
   </si>
   <si>
+    <t>"Мод. урона оружия ближнего боя"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_gladiator.effectData.TSM_Damage_Punch2.Details</t>
   </si>
   <si>
@@ -483,6 +486,9 @@
     <t>"EVASIVE MOVE"</t>
   </si>
   <si>
+    <t>"МАНЕВР УКЛОНЕНИЯ"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_jinxed.effectData.MaxEvasion0.Details</t>
   </si>
   <si>
@@ -504,6 +510,9 @@
     <t>"HARDER TO HIT"</t>
   </si>
   <si>
+    <t>"ТЯЖЕЛЕЕ ПОПАСТЬ"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_jinxed.quirkName</t>
   </si>
   <si>
@@ -543,9 +552,6 @@
     <t>"+0.5 MechTech. Reduces Cost and Upkeep for Argo System Upgrades by 5%. 10% Pilot Upkeep."</t>
   </si>
   <si>
-    <t>"+0.5 мехтех; на 5% ниже цена и стоимость содержания улучшений Арго; 10% содержание пилота."</t>
-  </si>
-  <si>
     <t>MechAffinity.pilot_lostech.quirkName</t>
   </si>
   <si>
@@ -561,9 +567,6 @@
     <t>"+0.5 Clustering. -10% Jam Chance Multi. +10% Upkeep"</t>
   </si>
   <si>
-    <t>"+2 кучность стрельбы; -10% шанс клина; +10% стоимость содержания."</t>
-  </si>
-  <si>
     <t>MechAffinity.pilot_lucky.effectData.LuckyJamChance0.Details</t>
   </si>
   <si>
@@ -639,9 +642,6 @@
     <t>"Reduces Argo Upkeep by 5%. 5% Chance for 1000Cbills/Day. 10% Pilot Upkeep."</t>
   </si>
   <si>
-    <t>"На 5% ниже стоимость содержания Арго; шанс 5% получить 1000 Cbills каждый день; 10% стоимость содержания пилота."</t>
-  </si>
-  <si>
     <t>MechAffinity.pilot_merchant.quirkName</t>
   </si>
   <si>
@@ -681,9 +681,6 @@
     <t>"Reduces Cost and Upkeep for Argo Morale and Med Upgrades by 5%. 15% Pilot Upkeep."</t>
   </si>
   <si>
-    <t>"На 5% ниже цена и стоимость содержания улучшений Арго, связанных с медициной и моралью; 15% стоимость содержания пилота."</t>
-  </si>
-  <si>
     <t>MechAffinity.pilot_noble.quirkName</t>
   </si>
   <si>
@@ -768,9 +765,6 @@
     <t>"Reduces Argo Upkeep and Upgrade Costs by 5%. 10% Pilot Upkeep."</t>
   </si>
   <si>
-    <t>"На 5% ниже цена и стоимость содержания улучшений Арго; 10% стоимость содержания пилота."</t>
-  </si>
-  <si>
     <t>MechAffinity.pilot_spacer.quirkName</t>
   </si>
   <si>
@@ -856,6 +850,390 @@
   </si>
   <si>
     <t>MechAffinity.pilot_military.effectData.QuirkMilitaryKillThreshold1.Name</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_disgraced.DisgracedGuts.effectData1.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Disgraced: Increased Guts"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Бесчестность: выше Guts"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_disgraced.DisgracedSignature.effectData2.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Disgraced: Decreased Sensor Signature"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Бесчестность: ниже заметность сенсорами"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_disgraced.DisgracedVisibility.effectData3.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Disgraced: Decreased Visual Signature"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Бесчестность: сниженная заметность"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_disgraced.DisgracedGuts.effectData1.Details</t>
+  </si>
+  <si>
+    <t>"Buffs Guts Skill"</t>
+  </si>
+  <si>
+    <t>"Повышает навык Guts"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_disgraced.DisgracedSignature.effectData2.Details</t>
+  </si>
+  <si>
+    <t>"Signature Statuseffect."</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_disgraced.DisgracedVisibility.effectData3.Details</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_fortifiedPropaganda.quirkName</t>
+  </si>
+  <si>
+    <t>"Fortified Propaganda"</t>
+  </si>
+  <si>
+    <t>"Усиленная пропаганда"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_fortifiedPropaganda.description</t>
+  </si>
+  <si>
+    <t>"+4 Heat Sinking, +1 Ballistic Accuracy, +0.1 Employer Fort Modifier when deployed (RT Online only). +65% Pilot Upkeep"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_fortifiedPropaganda.StatusEffect_BCHeat.effectData0.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Fortified Propaganda: Increased Cooling"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Усиленная пропаганда: повышенное охлаждение"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_fortifiedPropaganda.StatusEffect_BCBallistic.effectData1.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Fortified Propaganda: Improved Ballistic Accuracy"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Усиленная пропаганда: выше точность баллистики"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_fortifiedPropaganda.StatusEffect_BCHeat.effectData0.Details</t>
+  </si>
+  <si>
+    <t>"Heat sinking capacity increased by 2."</t>
+  </si>
+  <si>
+    <t>"Теплоёмкость повышена на 2."</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_fortifiedPropaganda.StatusEffect_BCBallistic.effectData1.Details</t>
+  </si>
+  <si>
+    <t>"Ballistic weapon attacks have their hit improved by [AMT]."</t>
+  </si>
+  <si>
+    <t>"Шанс попадания из баллистического оружия улучшен на [AMT]."</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_ilChiOverdrive.quirkName</t>
+  </si>
+  <si>
+    <t>"IlChi Overdrive"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_ilChiOverdrive.description</t>
+  </si>
+  <si>
+    <t>"+0.5 MedTech. +0.5 MechTech. +1 Walk Move Point. -10% Panic Chance for Lancemates. +85% Pilot Upkeep"</t>
+  </si>
+  <si>
+    <t>"+0,5 медтех очков, +0.5 мехтех, +1 очко перемещения Walk, -10% шанса паники для членов отряда, +85% к содержанию пилота"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_ilChiOverdrive.pilot_ilChiOverdriveWalkSpeed.effectData0.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Ilchi Overdrive: Increased Walk Speed"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Ilchi Overdrive: выше скорость ходьбы"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_ilChiOverdrive.IntimidatedPenalty.effectData1.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Ilchi Overdrive: Decreased Lance Panic Chance"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Ilchi Overdrive: ниже шанс паники отряда"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_ilChiOverdrive.pilot_ilChiOverdriveWalkSpeed.effectData0.Details</t>
+  </si>
+  <si>
+    <t>"Stronger Melee and faster Movement"</t>
+  </si>
+  <si>
+    <t>"Сильнее в ближнем бою и быстрее"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_ilChiOverdrive.IntimidatedPenalty.effectData1.Details</t>
+  </si>
+  <si>
+    <t>"Decreases chance to panic by 10%."</t>
+  </si>
+  <si>
+    <t>"Снижает шанс паники на 10%."</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData1.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Ei Master: Increased Gunnery"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Ei Master: выше Gunnery"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData2.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Ei Master: Increased Piloting"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Ei Master: выше Piloting"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData3.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Ei Master: Increased Evasive Pips Gain"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Ei Master: больше шевронов уклонения"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData4.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Ei Master: Improved Accuracy"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Ei Master: выше точность"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData1.Details</t>
+  </si>
+  <si>
+    <t>"Buffs Gunnery Skill"</t>
+  </si>
+  <si>
+    <t>"Повышает навык Gunnery"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData3.Details</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData4.Details</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_gifSpeaker.StatusEffect-Indirect_Bonus.effectData2.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Herald Of Gifs: Improved Indirect Hit Chance"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Herald Of Gifs: выше точность огня непрямой наводкой"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_gifSpeaker.StatusEffect-Indirect_Bonus.effectData3.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Herald Of Gifs: Flat Improved Indirect Hit Chance"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_gifSpeaker.StatusEffect-Indirect_Bonus.effectData2.Details</t>
+  </si>
+  <si>
+    <t>"Indirect Missiles Attacks gain +1 accuracy."</t>
+  </si>
+  <si>
+    <t>"+1 точности ракетных атак с закрытых позиций."</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_gifSpeaker.StatusEffect-Indirect_Bonus.effectData3.Details</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_inspiringPresence.StatusEffect-Coordination-Tactics.effectData0.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Inspiring Presence: Increased Lance Guts"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Вдохновляющее присутствие: выше Guts отряда"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_inspiringPresence.StatusEffect-Coordination-Tactics.effectData0.Details</t>
+  </si>
+  <si>
+    <t>"Buffs Tactics Skill"</t>
+  </si>
+  <si>
+    <t>"Повышает навык Tactics"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_IronHearted.quirkName</t>
+  </si>
+  <si>
+    <t>"Iron Hearted Khan"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_IronHearted.description</t>
+  </si>
+  <si>
+    <t>"+1 MechTech. +1 Health. -5% Damage Taken. +80% Pilot Upkeep"</t>
+  </si>
+  <si>
+    <t>"+1 мехтех, +1 здоровье, -5% получаемый урон, +80% содержание пилота"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_IronHearted.StatusEffect-pilot_IronHearted-DamageReduction.effectData0.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Iron Hearted Khan: Decreased Damage Taken"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Iron Hearted Khan: ниже получаемый урон"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_IronHearted.StatusEffect-pilot_IronHearted-AoEDamageReduction.effectData1.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Iron Hearted Khan: Decreased AoE Damage Taken"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Iron Hearted Khan: ниже получаемый АоЕ урон"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_IronHearted.StatusEffect-pilot_IronHearted-DamageReduction.effectData0.Details</t>
+  </si>
+  <si>
+    <t>"Damage Reduction"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_IronHearted.StatusEffect-pilot_IronHearted-AoEDamageReduction.effectData1.Details</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_saintsHeavyLight.quirkName</t>
+  </si>
+  <si>
+    <t>"Saint's Heavy Light"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_saintsHeavyLight.description</t>
+  </si>
+  <si>
+    <t>"+30 Affinity in Heavy Mechs, +20 Affinity for all lancemates in Heavy Mechs, +70% Pilot Upkeep"</t>
+  </si>
+  <si>
+    <t>"+30 аффинити на тяжелых мехах, +20 аффинити для остального отряда в тяжелых мехах, +70% к зарплате пилота"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_iJustWantedInfernos.StatusEffect-IJustWantedInfernos-SRMAccuracy.effectData0.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Just Wanted Infernos: Improved SRM Accuracy"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота - Just Wanted Infernos: выше точность SRM"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_iJustWantedInfernos.StatusEffect-IJustWantedInfernos-SRMAccuracy.effectData0.Details</t>
+  </si>
+  <si>
+    <t>"Prototype Arctic Wolf SRM Cockpit."</t>
+  </si>
+  <si>
+    <t>"Прототипная SRM-кабина Arctic Wolf."</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_agentOfDeath.quirkName</t>
+  </si>
+  <si>
+    <t>"Agent Of Death"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_agentOfDeath.description</t>
+  </si>
+  <si>
+    <t>"-15% Stability Damage Taken, -0.15 OpFor Fort Modifier when deployed (RT Online only). +55% Pilot Upkeep"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_agentOfDeath.QuadStabilityReceived.effectData0.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Agent Of Death: Decreased Stability Damage Taken"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_agentOfDeath.QuadStabilityReceived.effectData0.Details</t>
+  </si>
+  <si>
+    <t>"Incoming stability damage reduced by [AMT]."</t>
+  </si>
+  <si>
+    <t>"Агент смерти"</t>
+  </si>
+  <si>
+    <t>"-15% получаемого урона устойчивости, -0,15 модификатор форта врага при отправке в бой (только RT Online). +55% затрат на содержание пилота"</t>
+  </si>
+  <si>
+    <t>"Особенность пилота «Агент смерти»: ниже получаемый урон устойчивости"</t>
+  </si>
+  <si>
+    <t>"+5% получ. ур. устойчивости; не катапультируется при панике; +1 точность Offensive Push."</t>
+  </si>
+  <si>
+    <t>"+5% урон/ур.устойчивости от Punch/Kick/физ. атак; +20% стоимость содержания."</t>
+  </si>
+  <si>
+    <t>"+0.5 мехтех; на 5% ниже цена и стоимость содержания улучшений Арго; +10% содержание пилота."</t>
+  </si>
+  <si>
+    <t>"+0.5 кучность стрельбы; -10% шанс клина; +10% стоимость содержания."</t>
+  </si>
+  <si>
+    <t>"На 5% ниже стоимость содержания Арго; шанс 5% получить 1000 C-bills каждый день; +10% стоимость содержания пилота."</t>
+  </si>
+  <si>
+    <t>"На 5% ниже цена и стоимость содержания улучшений Арго, связанных с медициной и моралью; +15% стоимость содержания пилота."</t>
+  </si>
+  <si>
+    <t>"На 5% ниже цена и стоимость содержания улучшений Арго; +10% стоимость содержания пилота."</t>
+  </si>
+  <si>
+    <t>"+4 к охлаждению, +1 точность баллистики, +0,1 модификатор Fort работодателя при отправке в бой (только RT Online). +65% к зарплате пилота"</t>
+  </si>
+  <si>
+    <t>"Хан с железным сердцем"</t>
+  </si>
+  <si>
+    <t>"Снижение урона"</t>
+  </si>
+  <si>
+    <t>"Получаемый урон устойчивости снижен на [AMT]."</t>
   </si>
 </sst>
 </file>
@@ -888,10 +1266,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,17 +1574,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="78.28515625" style="2" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="9" width="9.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1252,7 +1629,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -1263,15 +1640,15 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1280,15 +1657,15 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1297,15 +1674,15 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1314,15 +1691,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1331,15 +1708,15 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1348,15 +1725,15 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1365,15 +1742,15 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1382,15 +1759,15 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1399,15 +1776,15 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1416,15 +1793,15 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2">
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1433,15 +1810,15 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2">
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1450,15 +1827,15 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2">
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1467,15 +1844,15 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2">
         <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1484,15 +1861,15 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2">
         <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1501,7 +1878,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -1509,7 +1886,7 @@
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1518,15 +1895,15 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
         <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1535,7 +1912,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
@@ -1543,7 +1920,7 @@
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1552,15 +1929,15 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
         <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1569,15 +1946,15 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="3">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2">
         <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1586,15 +1963,15 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="3">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2">
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1603,15 +1980,15 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="3">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2">
         <v>24</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1620,15 +1997,15 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="3">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2">
         <v>25</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -1637,15 +2014,15 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="3">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2">
         <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1654,15 +2031,15 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="3">
+        <v>72</v>
+      </c>
+      <c r="D27" s="2">
         <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1671,15 +2048,15 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="3">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
         <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1688,15 +2065,15 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="3">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1705,15 +2082,15 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="3">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2">
         <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1722,15 +2099,15 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="3">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2">
         <v>31</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1739,15 +2116,15 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="3">
+        <v>79</v>
+      </c>
+      <c r="D32" s="2">
         <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1756,15 +2133,15 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="3">
+        <v>82</v>
+      </c>
+      <c r="D33" s="2">
         <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1773,15 +2150,15 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="3">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2">
         <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1790,15 +2167,15 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="3">
+        <v>88</v>
+      </c>
+      <c r="D35" s="2">
         <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1807,15 +2184,15 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="3">
+        <v>41</v>
+      </c>
+      <c r="D36" s="2">
         <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1824,15 +2201,15 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="3">
+        <v>44</v>
+      </c>
+      <c r="D37" s="2">
         <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1841,15 +2218,15 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="3">
+        <v>93</v>
+      </c>
+      <c r="D38" s="2">
         <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1858,15 +2235,15 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="3">
+        <v>96</v>
+      </c>
+      <c r="D39" s="2">
         <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -1875,15 +2252,15 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="3">
+        <v>41</v>
+      </c>
+      <c r="D40" s="2">
         <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -1892,15 +2269,15 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="3">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2">
         <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -1909,15 +2286,15 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="3">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2">
         <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -1926,15 +2303,15 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="3">
+        <v>44</v>
+      </c>
+      <c r="D43" s="2">
         <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1943,15 +2320,15 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="3">
+        <v>41</v>
+      </c>
+      <c r="D44" s="2">
         <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -1960,15 +2337,15 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="3">
+        <v>44</v>
+      </c>
+      <c r="D45" s="2">
         <v>45</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1977,15 +2354,15 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="3">
+        <v>105</v>
+      </c>
+      <c r="D46" s="2">
         <v>46</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -1994,15 +2371,15 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="3">
+        <v>108</v>
+      </c>
+      <c r="D47" s="2">
         <v>47</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2011,15 +2388,15 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="3">
+        <v>111</v>
+      </c>
+      <c r="D48" s="2">
         <v>48</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -2028,15 +2405,15 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="3">
+        <v>393</v>
+      </c>
+      <c r="D49" s="2">
         <v>49</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2048,12 +2425,12 @@
         <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="3">
+        <v>41</v>
+      </c>
+      <c r="D50" s="2">
         <v>50</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -2065,12 +2442,12 @@
         <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="3">
+        <v>44</v>
+      </c>
+      <c r="D51" s="2">
         <v>51</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -2087,7 +2464,7 @@
       <c r="C52" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>52</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -2102,9 +2479,9 @@
         <v>120</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="3">
+        <v>394</v>
+      </c>
+      <c r="D53" s="2">
         <v>53</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -2113,15 +2490,15 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>54</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -2136,9 +2513,9 @@
         <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="3">
+        <v>126</v>
+      </c>
+      <c r="D55" s="2">
         <v>55</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2147,15 +2524,15 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>56</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -2164,15 +2541,15 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="3">
+        <v>126</v>
+      </c>
+      <c r="D57" s="2">
         <v>57</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -2181,15 +2558,15 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>58</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -2198,15 +2575,15 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="3">
+        <v>126</v>
+      </c>
+      <c r="D59" s="2">
         <v>59</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -2215,15 +2592,15 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2232,15 +2609,15 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" s="3">
+        <v>126</v>
+      </c>
+      <c r="D61" s="2">
         <v>61</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -2249,15 +2626,15 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>62</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -2266,15 +2643,15 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="3">
+        <v>126</v>
+      </c>
+      <c r="D63" s="2">
         <v>63</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -2283,15 +2660,15 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>64</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -2300,15 +2677,15 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="3">
+        <v>126</v>
+      </c>
+      <c r="D65" s="2">
         <v>65</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2317,15 +2694,15 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="3">
+        <v>139</v>
+      </c>
+      <c r="D66" s="2">
         <v>66</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -2334,15 +2711,15 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="3">
+        <v>142</v>
+      </c>
+      <c r="D67" s="2">
         <v>67</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -2351,15 +2728,15 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="3">
+        <v>145</v>
+      </c>
+      <c r="D68" s="2">
         <v>68</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -2368,15 +2745,15 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" s="3">
+        <v>148</v>
+      </c>
+      <c r="D69" s="2">
         <v>69</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -2385,15 +2762,15 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" s="3">
+        <v>151</v>
+      </c>
+      <c r="D70" s="2">
         <v>70</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2402,15 +2779,15 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D71" s="3">
+        <v>154</v>
+      </c>
+      <c r="D71" s="2">
         <v>71</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -2419,15 +2796,15 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" s="3">
+        <v>151</v>
+      </c>
+      <c r="D72" s="2">
         <v>72</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -2436,15 +2813,15 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -2453,15 +2830,15 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="3">
+        <v>159</v>
+      </c>
+      <c r="D74" s="2">
         <v>74</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -2470,15 +2847,15 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" s="3">
+        <v>162</v>
+      </c>
+      <c r="D75" s="2">
         <v>75</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2487,15 +2864,15 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" s="3">
+        <v>165</v>
+      </c>
+      <c r="D76" s="2">
         <v>76</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -2504,15 +2881,15 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D77" s="3">
+        <v>168</v>
+      </c>
+      <c r="D77" s="2">
         <v>77</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -2521,15 +2898,15 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" s="3">
+        <v>41</v>
+      </c>
+      <c r="D78" s="2">
         <v>78</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -2538,15 +2915,15 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79" s="3">
+        <v>44</v>
+      </c>
+      <c r="D79" s="2">
         <v>79</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -2555,15 +2932,15 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D80" s="3">
+        <v>173</v>
+      </c>
+      <c r="D80" s="2">
         <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -2572,15 +2949,15 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D81" s="3">
+        <v>395</v>
+      </c>
+      <c r="D81" s="2">
         <v>81</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2589,15 +2966,15 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D82" s="3">
+        <v>178</v>
+      </c>
+      <c r="D82" s="2">
         <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -2606,15 +2983,15 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D83" s="3">
+        <v>396</v>
+      </c>
+      <c r="D83" s="2">
         <v>83</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -2623,15 +3000,15 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" s="3">
+        <v>183</v>
+      </c>
+      <c r="D84" s="2">
         <v>84</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -2640,15 +3017,15 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D85" s="3">
+        <v>186</v>
+      </c>
+      <c r="D85" s="2">
         <v>85</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -2657,15 +3034,15 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D86" s="3">
+        <v>189</v>
+      </c>
+      <c r="D86" s="2">
         <v>86</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -2674,15 +3051,15 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="3">
+        <v>192</v>
+      </c>
+      <c r="D87" s="2">
         <v>87</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -2691,15 +3068,15 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D88" s="3">
+        <v>195</v>
+      </c>
+      <c r="D88" s="2">
         <v>88</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -2708,15 +3085,15 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D89" s="3">
+        <v>198</v>
+      </c>
+      <c r="D89" s="2">
         <v>89</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -2725,7 +3102,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>5</v>
@@ -2733,7 +3110,7 @@
       <c r="C90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -2742,15 +3119,15 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="3">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2">
         <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2759,15 +3136,15 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D92" s="3">
+        <v>203</v>
+      </c>
+      <c r="D92" s="2">
         <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -2776,15 +3153,15 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D93" s="3">
+        <v>397</v>
+      </c>
+      <c r="D93" s="2">
         <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -2801,7 +3178,7 @@
       <c r="C94" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -2818,7 +3195,7 @@
       <c r="C95" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -2835,7 +3212,7 @@
       <c r="C96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -2850,9 +3227,9 @@
         <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="3">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2">
         <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -2869,7 +3246,7 @@
       <c r="C98" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -2884,9 +3261,9 @@
         <v>218</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D99" s="3">
+        <v>398</v>
+      </c>
+      <c r="D99" s="2">
         <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -2895,15 +3272,15 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D100" s="3">
+      <c r="D100" s="2">
         <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -2912,15 +3289,15 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D101" s="3">
+      <c r="D101" s="2">
         <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -2929,15 +3306,15 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102" s="3">
+        <v>24</v>
+      </c>
+      <c r="D102" s="2">
         <v>102</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -2946,15 +3323,15 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="3">
+        <v>26</v>
+      </c>
+      <c r="D103" s="2">
         <v>103</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -2963,15 +3340,15 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D104" s="3">
+        <v>29</v>
+      </c>
+      <c r="D104" s="2">
         <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
@@ -2980,15 +3357,15 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D105" s="3">
+        <v>32</v>
+      </c>
+      <c r="D105" s="2">
         <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
@@ -2997,15 +3374,15 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D106" s="3">
+      <c r="D106" s="2">
         <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
@@ -3014,15 +3391,15 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D107" s="3">
+      <c r="D107" s="2">
         <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -3031,15 +3408,15 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D108" s="3">
+      <c r="D108" s="2">
         <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -3048,15 +3425,15 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D109" s="3">
+        <v>239</v>
+      </c>
+      <c r="D109" s="2">
         <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
@@ -3065,15 +3442,15 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D110" s="3">
+        <v>151</v>
+      </c>
+      <c r="D110" s="2">
         <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -3082,15 +3459,15 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D111" s="3">
+        <v>154</v>
+      </c>
+      <c r="D111" s="2">
         <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
@@ -3099,15 +3476,15 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D112" s="3">
+      <c r="D112" s="2">
         <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3116,15 +3493,15 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D113" s="3">
+        <v>399</v>
+      </c>
+      <c r="D113" s="2">
         <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -3133,15 +3510,15 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D114" s="3">
+      <c r="D114" s="2">
         <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -3150,15 +3527,15 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D115" s="3">
+      <c r="D115" s="2">
         <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
@@ -3167,15 +3544,15 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D116" s="3">
+      <c r="D116" s="2">
         <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
@@ -3184,15 +3561,15 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D117" s="3">
+      <c r="D117" s="2">
         <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3201,15 +3578,15 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D118" s="3">
+      <c r="D118" s="2">
         <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -3218,15 +3595,15 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D119" s="3">
+      <c r="D119" s="2">
         <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
@@ -3235,15 +3612,15 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D120" s="3">
+      <c r="D120" s="2">
         <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -3252,15 +3629,15 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D121" s="3">
+      <c r="D121" s="2">
         <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
@@ -3269,15 +3646,15 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D122" s="3">
+      <c r="D122" s="2">
         <v>122</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3286,15 +3663,15 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D123" s="3">
+        <v>270</v>
+      </c>
+      <c r="D123" s="2">
         <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -3303,18 +3680,783 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D124" s="2">
+        <v>124</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D124" s="3">
-        <v>124</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D125" s="2">
+        <v>125</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D126" s="2">
+        <v>126</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D127" s="2">
+        <v>127</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D128" s="2">
+        <v>128</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D129" s="2">
+        <v>129</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D130" s="2">
+        <v>130</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D131" s="2">
+        <v>131</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D132" s="2">
+        <v>132</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D133" s="2">
+        <v>133</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D134" s="2">
+        <v>134</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D135" s="2">
+        <v>135</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D136" s="2">
+        <v>136</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D137" s="2">
+        <v>137</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D138" s="2">
+        <v>138</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D139" s="2">
+        <v>139</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D140" s="2">
+        <v>140</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D141" s="2">
+        <v>141</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D142" s="2">
+        <v>142</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D143" s="2">
+        <v>143</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D144" s="2">
+        <v>144</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D145" s="2">
+        <v>145</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D146" s="2">
+        <v>146</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D147" s="2">
+        <v>147</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" s="2">
+        <v>148</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D149" s="2">
+        <v>149</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D150" s="2">
+        <v>150</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D151" s="2">
+        <v>151</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D152" s="2">
+        <v>152</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D153" s="2">
+        <v>153</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D154" s="2">
+        <v>154</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D155" s="2">
+        <v>155</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D156" s="2">
+        <v>156</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D157" s="2">
+        <v>157</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D158" s="2">
+        <v>158</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D159" s="2">
+        <v>159</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D160" s="2">
+        <v>160</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D161" s="2">
+        <v>161</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D162" s="2">
+        <v>162</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D163" s="2">
+        <v>163</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D164" s="2">
+        <v>164</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D165" s="2">
+        <v>165</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D166" s="2">
+        <v>166</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D167" s="2">
+        <v>167</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D168" s="2">
+        <v>168</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D169" s="2">
+        <v>169</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
@@ -366,6 +366,9 @@
     <t>"+5% Stability Taken. Avoids Panic Eject. +1 OP Accuracy."</t>
   </si>
   <si>
+    <t>"+5% получ. ур. устойчивости; не катапультируется при панике; +1 точность Offensive Push."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_drunk.effectData.DrunkStabilityQuirk0.Details</t>
   </si>
   <si>
@@ -387,6 +390,9 @@
     <t>"+5% Punch/Kick/Phys Melee Damage % Stability. +20% Upkeep."</t>
   </si>
   <si>
+    <t>"+5% урон/ур.устойчивости от Punch/Kick/физ. атак; +20% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_gladiator.effectData.TSM_Damage_Kick4.Details</t>
   </si>
   <si>
@@ -552,6 +558,9 @@
     <t>"+0.5 MechTech. Reduces Cost and Upkeep for Argo System Upgrades by 5%. 10% Pilot Upkeep."</t>
   </si>
   <si>
+    <t>"+0.5 мехтех; на 5% ниже цена и стоимость содержания улучшений Арго; +10% содержание пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lostech.quirkName</t>
   </si>
   <si>
@@ -567,6 +576,9 @@
     <t>"+0.5 Clustering. -10% Jam Chance Multi. +10% Upkeep"</t>
   </si>
   <si>
+    <t>"+0.5 кучность стрельбы; -10% шанс клина; +10% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lucky.effectData.LuckyJamChance0.Details</t>
   </si>
   <si>
@@ -642,6 +654,9 @@
     <t>"Reduces Argo Upkeep by 5%. 5% Chance for 1000Cbills/Day. 10% Pilot Upkeep."</t>
   </si>
   <si>
+    <t>"На 5% ниже стоимость содержания Арго; шанс 5% получить 1000 C-bills каждый день; +10% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_merchant.quirkName</t>
   </si>
   <si>
@@ -681,6 +696,9 @@
     <t>"Reduces Cost and Upkeep for Argo Morale and Med Upgrades by 5%. 15% Pilot Upkeep."</t>
   </si>
   <si>
+    <t>"На 5% ниже цена и стоимость содержания улучшений Арго, связанных с медициной и моралью; +15% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_noble.quirkName</t>
   </si>
   <si>
@@ -765,6 +783,9 @@
     <t>"Reduces Argo Upkeep and Upgrade Costs by 5%. 10% Pilot Upkeep."</t>
   </si>
   <si>
+    <t>"На 5% ниже цена и стоимость содержания улучшений Арго; +10% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_spacer.quirkName</t>
   </si>
   <si>
@@ -912,6 +933,9 @@
     <t>"+4 Heat Sinking, +1 Ballistic Accuracy, +0.1 Employer Fort Modifier when deployed (RT Online only). +65% Pilot Upkeep"</t>
   </si>
   <si>
+    <t>"+4 к охлаждению, +1 точность баллистики, +0,1 модификатор Fort работодателя при отправке в бой (только RT Online). +65% к зарплате пилота"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_fortifiedPropaganda.StatusEffect_BCHeat.effectData0.Name</t>
   </si>
   <si>
@@ -1101,6 +1125,9 @@
     <t>"Iron Hearted Khan"</t>
   </si>
   <si>
+    <t>"Хан с железным сердцем"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_IronHearted.description</t>
   </si>
   <si>
@@ -1134,6 +1161,9 @@
     <t>"Damage Reduction"</t>
   </si>
   <si>
+    <t>"Снижение урона"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_IronHearted.StatusEffect-pilot_IronHearted-AoEDamageReduction.effectData1.Details</t>
   </si>
   <si>
@@ -1176,61 +1206,31 @@
     <t>"Agent Of Death"</t>
   </si>
   <si>
+    <t>"Агент смерти"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_agentOfDeath.description</t>
   </si>
   <si>
     <t>"-15% Stability Damage Taken, -0.15 OpFor Fort Modifier when deployed (RT Online only). +55% Pilot Upkeep"</t>
   </si>
   <si>
+    <t>"-15% получаемого урона устойчивости, -0,15 модификатор форта врага при отправке в бой (только RT Online). +55% затрат на содержание пилота"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_agentOfDeath.QuadStabilityReceived.effectData0.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Agent Of Death: Decreased Stability Damage Taken"</t>
   </si>
   <si>
+    <t>"Особенность пилота «Агент смерти»: ниже получаемый урон устойчивости"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_agentOfDeath.QuadStabilityReceived.effectData0.Details</t>
   </si>
   <si>
     <t>"Incoming stability damage reduced by [AMT]."</t>
-  </si>
-  <si>
-    <t>"Агент смерти"</t>
-  </si>
-  <si>
-    <t>"-15% получаемого урона устойчивости, -0,15 модификатор форта врага при отправке в бой (только RT Online). +55% затрат на содержание пилота"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота «Агент смерти»: ниже получаемый урон устойчивости"</t>
-  </si>
-  <si>
-    <t>"+5% получ. ур. устойчивости; не катапультируется при панике; +1 точность Offensive Push."</t>
-  </si>
-  <si>
-    <t>"+5% урон/ур.устойчивости от Punch/Kick/физ. атак; +20% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"+0.5 мехтех; на 5% ниже цена и стоимость содержания улучшений Арго; +10% содержание пилота."</t>
-  </si>
-  <si>
-    <t>"+0.5 кучность стрельбы; -10% шанс клина; +10% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"На 5% ниже стоимость содержания Арго; шанс 5% получить 1000 C-bills каждый день; +10% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"На 5% ниже цена и стоимость содержания улучшений Арго, связанных с медициной и моралью; +15% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"На 5% ниже цена и стоимость содержания улучшений Арго; +10% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"+4 к охлаждению, +1 точность баллистики, +0,1 модификатор Fort работодателя при отправке в бой (только RT Online). +65% к зарплате пилота"</t>
-  </si>
-  <si>
-    <t>"Хан с железным сердцем"</t>
-  </si>
-  <si>
-    <t>"Снижение урона"</t>
   </si>
   <si>
     <t>"Получаемый урон устойчивости снижен на [AMT]."</t>
@@ -1576,15 +1576,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="78.28515625" style="2" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="10" width="9.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
         <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>393</v>
+        <v>114</v>
       </c>
       <c r="D49" s="2">
         <v>49</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>40</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>43</v>
@@ -2456,13 +2456,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D52" s="2">
         <v>52</v>
@@ -2473,13 +2473,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>394</v>
+        <v>122</v>
       </c>
       <c r="D53" s="2">
         <v>53</v>
@@ -2490,13 +2490,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D54" s="2">
         <v>54</v>
@@ -2507,13 +2507,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D55" s="2">
         <v>55</v>
@@ -2524,13 +2524,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D56" s="2">
         <v>56</v>
@@ -2541,13 +2541,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D57" s="2">
         <v>57</v>
@@ -2558,13 +2558,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D58" s="2">
         <v>58</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D59" s="2">
         <v>59</v>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D60" s="2">
         <v>60</v>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D61" s="2">
         <v>61</v>
@@ -2626,13 +2626,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D62" s="2">
         <v>62</v>
@@ -2643,13 +2643,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D63" s="2">
         <v>63</v>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D64" s="2">
         <v>64</v>
@@ -2677,13 +2677,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D65" s="2">
         <v>65</v>
@@ -2694,13 +2694,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D66" s="2">
         <v>66</v>
@@ -2711,13 +2711,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D67" s="2">
         <v>67</v>
@@ -2728,13 +2728,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D68" s="2">
         <v>68</v>
@@ -2745,13 +2745,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D69" s="2">
         <v>69</v>
@@ -2762,13 +2762,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D70" s="2">
         <v>70</v>
@@ -2779,13 +2779,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D71" s="2">
         <v>71</v>
@@ -2796,13 +2796,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D72" s="2">
         <v>72</v>
@@ -2813,13 +2813,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D73" s="2">
         <v>73</v>
@@ -2830,13 +2830,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D74" s="2">
         <v>74</v>
@@ -2847,13 +2847,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D75" s="2">
         <v>75</v>
@@ -2864,13 +2864,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D76" s="2">
         <v>76</v>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D77" s="2">
         <v>77</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>40</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>43</v>
@@ -2932,13 +2932,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D80" s="2">
         <v>80</v>
@@ -2949,13 +2949,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>395</v>
+        <v>178</v>
       </c>
       <c r="D81" s="2">
         <v>81</v>
@@ -2966,13 +2966,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D82" s="2">
         <v>82</v>
@@ -2983,13 +2983,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>396</v>
+        <v>184</v>
       </c>
       <c r="D83" s="2">
         <v>83</v>
@@ -3000,13 +3000,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D84" s="2">
         <v>84</v>
@@ -3017,13 +3017,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D85" s="2">
         <v>85</v>
@@ -3034,13 +3034,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D86" s="2">
         <v>86</v>
@@ -3051,13 +3051,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D87" s="2">
         <v>87</v>
@@ -3068,13 +3068,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D88" s="2">
         <v>88</v>
@@ -3085,13 +3085,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D89" s="2">
         <v>89</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>5</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>8</v>
@@ -3136,13 +3136,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D92" s="2">
         <v>92</v>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>397</v>
+        <v>210</v>
       </c>
       <c r="D93" s="2">
         <v>93</v>
@@ -3170,13 +3170,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D94" s="2">
         <v>94</v>
@@ -3187,13 +3187,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D95" s="2">
         <v>95</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>5</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>8</v>
@@ -3238,13 +3238,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D98" s="2">
         <v>98</v>
@@ -3255,13 +3255,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>398</v>
+        <v>224</v>
       </c>
       <c r="D99" s="2">
         <v>99</v>
@@ -3272,13 +3272,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D100" s="2">
         <v>100</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D101" s="2">
         <v>101</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>23</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>26</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>28</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>31</v>
@@ -3374,13 +3374,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D106" s="2">
         <v>106</v>
@@ -3391,13 +3391,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D107" s="2">
         <v>107</v>
@@ -3408,13 +3408,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D108" s="2">
         <v>108</v>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D109" s="2">
         <v>109</v>
@@ -3442,13 +3442,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D110" s="2">
         <v>110</v>
@@ -3459,13 +3459,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D111" s="2">
         <v>111</v>
@@ -3476,13 +3476,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D112" s="2">
         <v>112</v>
@@ -3493,13 +3493,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>399</v>
+        <v>253</v>
       </c>
       <c r="D113" s="2">
         <v>113</v>
@@ -3510,13 +3510,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D114" s="2">
         <v>114</v>
@@ -3527,13 +3527,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D115" s="2">
         <v>115</v>
@@ -3544,13 +3544,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D116" s="2">
         <v>116</v>
@@ -3561,13 +3561,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D117" s="2">
         <v>117</v>
@@ -3578,13 +3578,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D118" s="2">
         <v>118</v>
@@ -3595,13 +3595,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D119" s="2">
         <v>119</v>
@@ -3612,13 +3612,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D120" s="2">
         <v>120</v>
@@ -3629,13 +3629,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D121" s="2">
         <v>121</v>
@@ -3646,13 +3646,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D122" s="2">
         <v>122</v>
@@ -3663,13 +3663,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D123" s="2">
         <v>123</v>
@@ -3680,13 +3680,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D124" s="2">
         <v>124</v>
@@ -3697,13 +3697,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D125" s="2">
         <v>125</v>
@@ -3714,13 +3714,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D126" s="2">
         <v>126</v>
@@ -3731,13 +3731,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D127" s="2">
         <v>127</v>
@@ -3748,13 +3748,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D128" s="2">
         <v>128</v>
@@ -3765,13 +3765,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D129" s="2">
         <v>129</v>
@@ -3782,13 +3782,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D130" s="2">
         <v>130</v>
@@ -3799,13 +3799,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D131" s="2">
         <v>131</v>
@@ -3816,13 +3816,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="D132" s="2">
         <v>132</v>
@@ -3833,13 +3833,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D133" s="2">
         <v>133</v>
@@ -3850,13 +3850,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D134" s="2">
         <v>134</v>
@@ -3867,13 +3867,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D135" s="2">
         <v>135</v>
@@ -3884,13 +3884,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D136" s="2">
         <v>136</v>
@@ -3901,13 +3901,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D137" s="2">
         <v>137</v>
@@ -3918,13 +3918,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D138" s="2">
         <v>138</v>
@@ -3935,13 +3935,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D139" s="2">
         <v>139</v>
@@ -3952,13 +3952,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D140" s="2">
         <v>140</v>
@@ -3969,13 +3969,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D141" s="2">
         <v>141</v>
@@ -3986,13 +3986,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D142" s="2">
         <v>142</v>
@@ -4003,13 +4003,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D143" s="2">
         <v>143</v>
@@ -4020,13 +4020,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D144" s="2">
         <v>144</v>
@@ -4037,13 +4037,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D145" s="2">
         <v>145</v>
@@ -4054,13 +4054,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D146" s="2">
         <v>146</v>
@@ -4071,13 +4071,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D147" s="2">
         <v>147</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>40</v>
@@ -4105,13 +4105,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D149" s="2">
         <v>149</v>
@@ -4122,13 +4122,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D150" s="2">
         <v>150</v>
@@ -4139,13 +4139,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D151" s="2">
         <v>151</v>
@@ -4156,13 +4156,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D152" s="2">
         <v>152</v>
@@ -4173,13 +4173,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D153" s="2">
         <v>153</v>
@@ -4190,13 +4190,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D154" s="2">
         <v>154</v>
@@ -4207,13 +4207,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D155" s="2">
         <v>155</v>
@@ -4224,13 +4224,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="D156" s="2">
         <v>156</v>
@@ -4241,13 +4241,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D157" s="2">
         <v>157</v>
@@ -4258,13 +4258,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D158" s="2">
         <v>158</v>
@@ -4275,13 +4275,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D159" s="2">
         <v>159</v>
@@ -4292,13 +4292,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="D160" s="2">
         <v>160</v>
@@ -4309,13 +4309,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="D161" s="2">
         <v>161</v>
@@ -4326,13 +4326,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D162" s="2">
         <v>162</v>
@@ -4343,13 +4343,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D163" s="2">
         <v>163</v>
@@ -4360,13 +4360,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D164" s="2">
         <v>164</v>
@@ -4377,13 +4377,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D165" s="2">
         <v>165</v>
@@ -4394,13 +4394,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D166" s="2">
         <v>166</v>
@@ -4411,13 +4411,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D167" s="2">
         <v>167</v>
@@ -4428,13 +4428,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D168" s="2">
         <v>168</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>403</v>

--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SteamLibrary\steamapps\common\BATTLETECH\BT Mod Files\ENOVA LOCALIZATION\Localization - копия\RogueTech\RU\MechAffinity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SteamLibrary\steamapps\common\BATTLETECH\Mods\Core\CustomLocalization\Localization\RogueTech\RU\MechAffinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="687">
   <si>
     <t>MechAffinity.pilot_assassin.description</t>
   </si>
@@ -30,48 +30,72 @@
     <t>"+10% Called Shot. +3 OP Accuracy. +15% Upkeep"</t>
   </si>
   <si>
+    <t>"+10% прицельный залп. +3 точность Offensive Push; +15% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_assassin.effectData.AthleticQuirkHealth0.Details</t>
   </si>
   <si>
     <t>"Provides + 1 Initiative and several buffs."</t>
   </si>
   <si>
+    <t>"Даёт +1 к инициативе и несколько других баффов."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_assassin.effectData.AthleticQuirkHealth0.Name</t>
   </si>
   <si>
     <t>"Command Consoles"</t>
   </si>
   <si>
+    <t>"Командные консоли"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_assassin.quirkName</t>
   </si>
   <si>
     <t>"Assassin"</t>
   </si>
   <si>
+    <t>"Убийца"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_athletic.description</t>
   </si>
   <si>
     <t>"+1 Bonus Health. +5% Upkeep"</t>
   </si>
   <si>
+    <t>"+1 к здоровью; +5% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_athletic.quirkName</t>
   </si>
   <si>
     <t>"Athletic"</t>
   </si>
   <si>
+    <t>"Атлетизм"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_bookish.description</t>
   </si>
   <si>
     <t>"+5%Sight&amp;Sensors. +5% Pilot Upkeep"</t>
   </si>
   <si>
+    <t>"+5% к сенсорам/обзору; +5% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_bookish.effectData.ComstarQuirkSensor0.Details</t>
   </si>
   <si>
     <t>"Increased Sight/Sensors"</t>
   </si>
   <si>
+    <t>"Улучшенная дальность сенсоров и обзора"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_bookish.effectData.ComstarQuirkSensor0.Name</t>
   </si>
   <si>
@@ -84,48 +108,72 @@
     <t>"Increases spotting distance by 50m."</t>
   </si>
   <si>
+    <t>"Увеличивает дистанцию обнаружения целей на 50 м."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_bookish.effectData.ComstarQuirkSpotting1.Name</t>
   </si>
   <si>
     <t>"SPOTTING DISTANCE INCREASED"</t>
   </si>
   <si>
+    <t>"ДИСТАНЦИЯ ОБНАРУЖЕНИЯ ЦЕЛЕЙ УВЕЛИЧЕНА"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_bookish.quirkName</t>
   </si>
   <si>
     <t>"Bookish"</t>
   </si>
   <si>
+    <t>"Любовь к книгам"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_brave.description</t>
   </si>
   <si>
     <t>"+1 Resolve. Improved Panic Resistance. +5% Upkeep."</t>
   </si>
   <si>
+    <t>"+1 решимость; улучш. сопр. панике; +5% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_brave.effectData.BraveResolve0.Details</t>
   </si>
   <si>
     <t>"Incoming stability damage reduced by 10%."</t>
   </si>
   <si>
+    <t>"Получаемый урон устойчивости снижен на 10%."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_brave.effectData.BraveResolve0.Name</t>
   </si>
   <si>
     <t>"INCOMING STABILITY DAMAGE DECREASED"</t>
   </si>
   <si>
+    <t>"ВХОДЯЩИЙ УРОН УСТОЙЧИВОСТИ УМЕНЬШЕН"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_brave.quirkName</t>
   </si>
   <si>
     <t>"Brave"</t>
   </si>
   <si>
+    <t>"Храбрость"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_cautious.description</t>
   </si>
   <si>
     <t>"+1 Evasion Generated. -1 Accuracy."</t>
   </si>
   <si>
+    <t>"+1 шеврон уклонения; -1 точность."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_cautious.effectData.CautiousQuirkEvasion0.Details</t>
   </si>
   <si>
@@ -144,36 +192,54 @@
     <t>"Cautious"</t>
   </si>
   <si>
+    <t>"Осторожность"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_command.description</t>
   </si>
   <si>
     <t>"+1 Lance Resolve. +1 Morale. +10% Pilot Upkeep"</t>
   </si>
   <si>
+    <t>"+1 решимость отряда; +1 мораль; +10% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_command.effectData.CommanderQuirkResolve0.Details</t>
   </si>
   <si>
     <t>"Provides a bonus to actions that generate Morale."</t>
   </si>
   <si>
+    <t>"Даёт бонус к действиям, которые повышают мораль."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_command.effectData.CommanderQuirkResolve0.Name</t>
   </si>
   <si>
     <t>"MORALE GENERATION INCREASED"</t>
   </si>
   <si>
+    <t>"РОСТ МОРАЛИ УВЕЛИЧЕН"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_command.quirkName</t>
   </si>
   <si>
     <t>"Commander"</t>
   </si>
   <si>
+    <t>"Командующий"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_comstar.description</t>
   </si>
   <si>
     <t>"+5%Sight&amp;Sensors. +0.5 MechTech. +10% Pilot Upkeep"</t>
   </si>
   <si>
+    <t>"+5% к сенсорам/обзору; +0.5 мехтех; +10% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_comstar.effectData.ComstarQuirkSensor0.Details</t>
   </si>
   <si>
@@ -192,24 +258,36 @@
     <t>"Ex-Comstar"</t>
   </si>
   <si>
+    <t>"Служба в КомСтар"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_criminal.description</t>
   </si>
   <si>
     <t>"10% Chance to Steal 1000 Cbills From OR For You."</t>
   </si>
   <si>
+    <t>"Шанс 10% украсть 1000 C-bills у вас ИЛИ для вас."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_criminal.quirkName</t>
   </si>
   <si>
     <t>"Criminal"</t>
   </si>
   <si>
+    <t>"Связи с преступностью"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_dependable.description</t>
   </si>
   <si>
     <t>"-5% Stability Taken. Improved Panic Resist. +5% Upkeep"</t>
   </si>
   <si>
+    <t>"-5% получ. ур. стаб.; улучш. сопр. панике; +5% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_dependable.effectData.DependableStabilityQuirk0.Details</t>
   </si>
   <si>
@@ -222,12 +300,18 @@
     <t>"Dependable"</t>
   </si>
   <si>
+    <t>"Надёжность"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_disgraced.description</t>
   </si>
   <si>
     <t>"+1 ECM Shield and Probe. -1 Morale."</t>
   </si>
   <si>
+    <t>"+1 ECM укрытие и подавление; -1 мораль."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_disgraced.effectData.DisgracedAS2.Details</t>
   </si>
   <si>
@@ -252,24 +336,36 @@
     <t>"Disgraced"</t>
   </si>
   <si>
+    <t>"Бесчестность"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_dishonest.description</t>
   </si>
   <si>
     <t>"5% Chance to Steal 500 Cbills From OR For You."</t>
   </si>
   <si>
+    <t>"Шанс 5% украсть 500 C-bills у вас ИЛИ для вас."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_dishonest.quirkName</t>
   </si>
   <si>
     <t>"Dishonest"</t>
   </si>
   <si>
+    <t>"Непорядочность"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_drunk.description</t>
   </si>
   <si>
     <t>"+5% Stability Taken. Avoids Panic Eject. +1 OP Accuracy."</t>
   </si>
   <si>
+    <t>"+5% получ. ур. устойчивости; не катапультируется при панике; +1 точность Offensive Push."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_drunk.effectData.DrunkStabilityQuirk0.Details</t>
   </si>
   <si>
@@ -282,24 +378,36 @@
     <t>"Drunk"</t>
   </si>
   <si>
+    <t>"Алкоголизм"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_gladiator.description</t>
   </si>
   <si>
     <t>"+5% Punch/Kick/Phys Melee Damage % Stability. +20% Upkeep."</t>
   </si>
   <si>
+    <t>"+5% урон/ур.устойчивости от Punch/Kick/физ. атак; +20% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_gladiator.effectData.TSM_Damage_Kick4.Details</t>
   </si>
   <si>
     <t>"Damage Modifier"</t>
   </si>
   <si>
+    <t>"Модификатор урона"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_gladiator.effectData.TSM_Damage_Kick4.Name</t>
   </si>
   <si>
     <t>"Melee Weapon Damage Mod"</t>
   </si>
   <si>
+    <t>"Мод. урона оружия ближнего боя"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_gladiator.effectData.TSM_Damage_Punch2.Details</t>
   </si>
   <si>
@@ -336,36 +444,54 @@
     <t>"Gladiator"</t>
   </si>
   <si>
+    <t>"Гладиатор"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_honest.description</t>
   </si>
   <si>
     <t>"+1 Morale. +5% Upkeep."</t>
   </si>
   <si>
+    <t>"+1 мораль; +5% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_honest.quirkName</t>
   </si>
   <si>
     <t>"Honest"</t>
   </si>
   <si>
+    <t>"Честность"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_jinxed.description</t>
   </si>
   <si>
     <t>"+1 Evasion Gained &amp; Max. -1 Defense."</t>
   </si>
   <si>
+    <t>"+1 шеврон уклонения и +1 макс. укл.; -1 защита."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_jinxed.effectData.GainEvasion1.Details</t>
   </si>
   <si>
     <t>"This unit generates an extra EVASIVE charge from movement actions (up to its maximum)."</t>
   </si>
   <si>
+    <t>"Носитель генерирует доп. шеврон уворота от любого движения (до своего максимума)."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_jinxed.effectData.GainEvasion1.Name</t>
   </si>
   <si>
     <t>"EVASIVE MOVE"</t>
   </si>
   <si>
+    <t>"МАНЕВР УКЛОНЕНИЯ"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_jinxed.effectData.MaxEvasion0.Details</t>
   </si>
   <si>
@@ -378,24 +504,36 @@
     <t>"Provides a penalty to all attacks against this unit."</t>
   </si>
   <si>
+    <t>"Даёт штраф ко всем атакам по носителю."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_jinxed.effectData.StatusEffect-Defense_ToHit-T32.Name</t>
   </si>
   <si>
     <t>"HARDER TO HIT"</t>
   </si>
   <si>
+    <t>"ТЯЖЕЛЕЕ ПОПАСТЬ"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_jinxed.quirkName</t>
   </si>
   <si>
     <t>"Jinxed"</t>
   </si>
   <si>
+    <t>"Невезение"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_klutz.description</t>
   </si>
   <si>
     <t>"+1 Evasion Gain. May Eject when Knockdown."</t>
   </si>
   <si>
+    <t>"+1 шеврон уклонения; шанс случайно катапультироваться при падении."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_klutz.effectData.KlutzEvasion0.Details</t>
   </si>
   <si>
@@ -408,60 +546,90 @@
     <t>"Klutz"</t>
   </si>
   <si>
+    <t>"Растяпа"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lostech.description</t>
   </si>
   <si>
     <t>"+0.5 MechTech. Reduces Cost and Upkeep for Argo System Upgrades by 5%. 10% Pilot Upkeep."</t>
   </si>
   <si>
+    <t>"+0.5 мехтех; на 5% ниже цена и стоимость содержания улучшений Арго; +10% содержание пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lostech.quirkName</t>
   </si>
   <si>
     <t>"LosTech Experience"</t>
   </si>
   <si>
+    <t>"Знание утерянных технологий"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lucky.description</t>
   </si>
   <si>
     <t>"+0.5 Clustering. -10% Jam Chance Multi. +10% Upkeep"</t>
   </si>
   <si>
+    <t>"+0.5 кучность стрельбы; -10% шанс клина; +10% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lucky.effectData.LuckyJamChance0.Details</t>
   </si>
   <si>
     <t>"Called Shots twice as reliable"</t>
   </si>
   <si>
+    <t>"Прицельные выстрелы вдвое надежнее"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lucky.effectData.LuckyJamChance0.Name</t>
   </si>
   <si>
     <t>"Improved Called Shot"</t>
   </si>
   <si>
+    <t>"Улучшенный прицельный выстрел"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lucky.effectData.StatusEffect_BCCluster1.Details</t>
   </si>
   <si>
     <t>"Substantially increases the clustering of this unit's LRM weapons."</t>
   </si>
   <si>
+    <t>"Существенно увеличивает кучность огня из орудий LRM типа."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lucky.effectData.StatusEffect_BCCluster1.Name</t>
   </si>
   <si>
     <t>"Laser Weapon Cluster Chance Improved"</t>
   </si>
   <si>
+    <t>"Кучность выстрелов из лазерного оружия повышена"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lucky.quirkName</t>
   </si>
   <si>
     <t>"Lucky"</t>
   </si>
   <si>
+    <t>"Везение"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_mechwarrior.description</t>
   </si>
   <si>
     <t>"+1 Initiative. +5% Upkeep"</t>
   </si>
   <si>
+    <t>"+1 инициатива; +5% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_mechwarrior.effectData.MechwarriorQuirkInitiative0.Details</t>
   </si>
   <si>
@@ -474,24 +642,36 @@
     <t>"Mechwarrior"</t>
   </si>
   <si>
+    <t>"Мехвоин"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_merchant.description</t>
   </si>
   <si>
     <t>"Reduces Argo Upkeep by 5%. 5% Chance for 1000Cbills/Day. 10% Pilot Upkeep."</t>
   </si>
   <si>
+    <t>"На 5% ниже стоимость содержания Арго; шанс 5% получить 1000 C-bills каждый день; +10% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_merchant.quirkName</t>
   </si>
   <si>
     <t>"Merchant"</t>
   </si>
   <si>
+    <t>"Торговец"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_military.description</t>
   </si>
   <si>
     <t>"+1 Bonus Health. -1 Recoil. +1 OP Accuracy. +15% Upkeep"</t>
   </si>
   <si>
+    <t>"+1 бонус к здоровью; -1 отдача; +1 точность Offensive Push; +15% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_military.effectData.MilitaryQuirkRecoil0.Details</t>
   </si>
   <si>
@@ -504,24 +684,36 @@
     <t>"Ex-Military"</t>
   </si>
   <si>
+    <t>"Армейская служба"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_noble.description</t>
   </si>
   <si>
     <t>"Reduces Cost and Upkeep for Argo Morale and Med Upgrades by 5%. 15% Pilot Upkeep."</t>
   </si>
   <si>
+    <t>"На 5% ниже цена и стоимость содержания улучшений Арго, связанных с медициной и моралью; +15% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_noble.quirkName</t>
   </si>
   <si>
     <t>"Noble"</t>
   </si>
   <si>
+    <t>"Аристократия"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_officer.description</t>
   </si>
   <si>
     <t>"+2.5% Lance Sight&amp;Sensors. +10% Upkeep"</t>
   </si>
   <si>
+    <t>"+2.5% к сенсорам/обзору отряда; +10% стоимость содержания."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_officer.effectData.OfficerLanceSensors0.Details</t>
   </si>
   <si>
@@ -540,18 +732,27 @@
     <t>"Officer"</t>
   </si>
   <si>
+    <t>"Офицер"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_reckless.description</t>
   </si>
   <si>
     <t>"+1 Evasion Ignore. -1 Max Evasion."</t>
   </si>
   <si>
+    <t>"Игнорирует +1 шеврон уклонения; -1 макс. уклонение."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_reckless.effectData.RecklessQuirkEvaIgnore0.Details</t>
   </si>
   <si>
     <t>"+2Acc, +50% Crit, +30% Range, -50%MinRange for ALL Weapons."</t>
   </si>
   <si>
+    <t>"+2 тчн., +50% криты, +30% дальность, -50% мин. дист. для всего вооружения."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_reckless.effectData.RecklessQuirkEvaIgnore0.Name</t>
   </si>
   <si>
@@ -570,66 +771,99 @@
     <t>"Reckless"</t>
   </si>
   <si>
+    <t>"Безрассудство"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_spacer.description</t>
   </si>
   <si>
     <t>"Reduces Argo Upkeep and Upgrade Costs by 5%. 10% Pilot Upkeep."</t>
   </si>
   <si>
+    <t>"На 5% ниже цена и стоимость содержания улучшений Арго; +10% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_spacer.quirkName</t>
   </si>
   <si>
     <t>"Spacer"</t>
   </si>
   <si>
+    <t>"Космонавт"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_tech.description</t>
   </si>
   <si>
     <t>"+1 MechTech. Reduces Cost and Upkeep for Mechbay Upgrades by 5%. 10% Pilot Upkeep."</t>
   </si>
   <si>
+    <t>"+1 мехтех; на 5% ниже цена и стоимость содержания мехотсеков; 10% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_tech.quirkName</t>
   </si>
   <si>
     <t>"Technician"</t>
   </si>
   <si>
+    <t>"Тех"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_wealthy.description</t>
   </si>
   <si>
     <t>"-50% Pilot Upkeep."</t>
   </si>
   <si>
+    <t>"-50% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_wealthy.quirkName</t>
   </si>
   <si>
     <t>"Wealthy"</t>
   </si>
   <si>
+    <t>"Обеспеченность"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_painshunt.description</t>
   </si>
   <si>
     <t>"Pilot is Immune to Injuries from Overheat, Internal Explosion and DNI Feedback. 25% Pilot Upkeep."</t>
   </si>
   <si>
+    <t>"У пилота иммунитет к травмам от перегрева, внутренних подрывов и обратной отдачи от DNI. 25% стоимость содержания пилота."</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_painshunt.quirkName</t>
   </si>
   <si>
     <t>"Pain Shunt"</t>
   </si>
   <si>
+    <t>"Шунтирование"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_athletic.effectData.QuirkAthleticKillThreshold0.Details</t>
   </si>
   <si>
     <t>"Heat generation reduced by 10%"</t>
   </si>
   <si>
+    <t>"Нагрев понижен на 10%"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_athletic.effectData.QuirkAthleticKillThreshold0.Name</t>
   </si>
   <si>
     <t>"Decreases Heat Generation"</t>
   </si>
   <si>
+    <t>"Снижает нагрев"</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_military.effectData.QuirkMilitaryKillThreshold1.Details</t>
   </si>
   <si>
@@ -642,30 +876,45 @@
     <t>"Pilot Quirk Disgraced: Increased Guts"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Бесчестность: выше Guts"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_disgraced.DisgracedSignature.effectData2.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Disgraced: Decreased Sensor Signature"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Бесчестность: ниже радиозаметность"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_disgraced.DisgracedVisibility.effectData3.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Disgraced: Decreased Visual Signature"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Бесчестность: ниже визуальная заметность"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_disgraced.DisgracedGuts.effectData1.Details</t>
   </si>
   <si>
     <t>"Buffs Guts Skill"</t>
   </si>
   <si>
+    <t>"Усиляет Guts"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_disgraced.DisgracedSignature.effectData2.Details</t>
   </si>
   <si>
     <t>"Signature Statuseffect."</t>
   </si>
   <si>
+    <t>"Статус-эффект радиозаметности"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_disgraced.DisgracedVisibility.effectData3.Details</t>
   </si>
   <si>
@@ -675,36 +924,54 @@
     <t>"Fortified Propaganda"</t>
   </si>
   <si>
+    <t>"Усиленная пропаганда"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_fortifiedPropaganda.description</t>
   </si>
   <si>
     <t>"+4 Heat Sinking, +1 Ballistic Accuracy, +0.1 Employer Fort Modifier when deployed (RT Online only). +65% Pilot Upkeep"</t>
   </si>
   <si>
+    <t>"+4 к охлаждению, +1 точность баллистики, +0,1 модификатор Fort работодателя при отправке в бой (только RT Online). +65% к зарплате пилота"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_fortifiedPropaganda.StatusEffect_BCHeat.effectData0.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Fortified Propaganda: Increased Cooling"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Усиленная пропаганда: повышенное охлаждение"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_fortifiedPropaganda.StatusEffect_BCBallistic.effectData1.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Fortified Propaganda: Improved Ballistic Accuracy"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Усиленная пропаганда: выше точность баллистики"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_fortifiedPropaganda.StatusEffect_BCHeat.effectData0.Details</t>
   </si>
   <si>
     <t>"Heat sinking capacity increased by 2."</t>
   </si>
   <si>
+    <t>"Теплоёмкость повышена на 2."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_fortifiedPropaganda.StatusEffect_BCBallistic.effectData1.Details</t>
   </si>
   <si>
     <t>"Ballistic weapon attacks have their hit improved by [AMT]."</t>
   </si>
   <si>
+    <t>"Шанс попадания из баллистического оружия улучшен на [AMT]."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_ilChiOverdrive.quirkName</t>
   </si>
   <si>
@@ -714,7 +981,10 @@
     <t>pilotQuirkDef_ilChiOverdrive.description</t>
   </si>
   <si>
-    <t>"+0.5 MedTech. +0.5 MechTech. +1 Walk Move Point. -10% Panic Chance for Lancemates. +85% Pilot Upkeep"</t>
+    <t>"+0.5 MedTech. +0.5 MechTech. +20% Walk Speed. -10% Panic Chance for Lancemates. +85% Pilot Upkeep"</t>
+  </si>
+  <si>
+    <t>"+0,5 медтех и +0.5 мехтех очков, +20% к дистанции Walk, -10% шанса паники для членов отряда, +85% к содержанию пилота"</t>
   </si>
   <si>
     <t>pilotQuirkDef_ilChiOverdrive.pilot_ilChiOverdriveWalkSpeed.effectData0.Name</t>
@@ -723,54 +993,81 @@
     <t>"Pilot Quirk Ilchi Overdrive: Increased Walk Speed"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Ilchi Overdrive: выше скорость ходьбы"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_ilChiOverdrive.IntimidatedPenalty.effectData1.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Ilchi Overdrive: Decreased Lance Panic Chance"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Ilchi Overdrive: ниже шанс паники отряда"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_ilChiOverdrive.pilot_ilChiOverdriveWalkSpeed.effectData0.Details</t>
   </si>
   <si>
     <t>"Stronger Melee and faster Movement"</t>
   </si>
   <si>
+    <t>"Сильнее в ближнем бою и быстрее"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_ilChiOverdrive.IntimidatedPenalty.effectData1.Details</t>
   </si>
   <si>
     <t>"Decreases chance to panic by 10%."</t>
   </si>
   <si>
+    <t>"Снижает шанс паники на 10%."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData1.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Ei Master: Increased Gunnery"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Ei Master: выше Gunnery"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData2.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Ei Master: Increased Piloting"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Ei Master: выше Piloting"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData3.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Ei Master: Increased Evasive Pips Gain"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Ei Master: больше шевронов уклонения"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData4.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Ei Master: Improved Accuracy"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Ei Master: выше точность"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData1.Details</t>
   </si>
   <si>
     <t>"Buffs Gunnery Skill"</t>
   </si>
   <si>
+    <t>"Усиляет Gunnery"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_eiMaster.StatusEffect-DarkKhaos.effectData3.Details</t>
   </si>
   <si>
@@ -783,18 +1080,27 @@
     <t>"Pilot Quirk Herald Of Gifs: Improved Indirect Hit Chance"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Herald Of Gifs: выше точность непрямого огня"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_gifSpeaker.StatusEffect-Indirect_Bonus.effectData3.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Herald Of Gifs: Flat Improved Indirect Hit Chance"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Herald Of Gifs: выше точность огня непрямой наводкой"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_gifSpeaker.StatusEffect-Indirect_Bonus.effectData2.Details</t>
   </si>
   <si>
     <t>"Indirect Missiles Attacks gain +1 accuracy."</t>
   </si>
   <si>
+    <t>"+1 точности ракетных атак с закрытых позиций."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_gifSpeaker.StatusEffect-Indirect_Bonus.effectData3.Details</t>
   </si>
   <si>
@@ -804,42 +1110,63 @@
     <t>"Pilot Quirk Inspiring Presence: Increased Lance Guts"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Вдохновляющее присутствие: выше Guts отряда"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_inspiringPresence.StatusEffect-Coordination-Tactics.effectData0.Details</t>
   </si>
   <si>
     <t>"Buffs Tactics Skill"</t>
   </si>
   <si>
+    <t>"Усиляет Tactics"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_IronHearted.quirkName</t>
   </si>
   <si>
     <t>"Iron Hearted Khan"</t>
   </si>
   <si>
+    <t>"Хан с железным сердцем"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_IronHearted.description</t>
   </si>
   <si>
     <t>"+1 MechTech. +1 Health. -5% Damage Taken. +80% Pilot Upkeep"</t>
   </si>
   <si>
+    <t>"+1 мехтех, +1 здоровье, -5% получаемый урон, +80% содержание пилота"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_IronHearted.StatusEffect-pilot_IronHearted-DamageReduction.effectData0.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Iron Hearted Khan: Decreased Damage Taken"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Iron Hearted Khan: ниже получаемый урон"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_IronHearted.StatusEffect-pilot_IronHearted-AoEDamageReduction.effectData1.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Iron Hearted Khan: Decreased AoE Damage Taken"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Iron Hearted Khan: ниже получаемый АоЕ урон"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_IronHearted.StatusEffect-pilot_IronHearted-DamageReduction.effectData0.Details</t>
   </si>
   <si>
     <t>"Damage Reduction"</t>
   </si>
   <si>
+    <t>"Снижение урона"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_IronHearted.StatusEffect-pilot_IronHearted-AoEDamageReduction.effectData1.Details</t>
   </si>
   <si>
@@ -855,60 +1182,90 @@
     <t>"+30 Affinity in Heavy Mechs and +20 Affinity for all lancemates in Heavy Mechs (applied in combat), +70% Pilot Upkeep"</t>
   </si>
   <si>
+    <t>"+30 аффинити на тяжелых мехах и +20 аффинити для остального отряда в тяжелых мехах (активируется в бою), +70% к зарплате пилота"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_iJustWantedInfernos.StatusEffect-IJustWantedInfernos-SRMAccuracy.effectData0.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Just Wanted Infernos: Improved SRM Accuracy"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Just Wanted Infernos: выше точность SRM"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_iJustWantedInfernos.StatusEffect-IJustWantedInfernos-SRMAccuracy.effectData0.Details</t>
   </si>
   <si>
     <t>"Prototype Arctic Wolf SRM Cockpit."</t>
   </si>
   <si>
+    <t>"Прототипная SRM-кабина Arctic Wolf."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_agentOfDeath.quirkName</t>
   </si>
   <si>
     <t>"Agent Of Death"</t>
   </si>
   <si>
+    <t>"Агент смерти"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_agentOfDeath.description</t>
   </si>
   <si>
     <t>"-15% Stability Damage Taken, -0.15 OpFor Fort Modifier when deployed (RT Online only). +55% Pilot Upkeep"</t>
   </si>
   <si>
+    <t>"-15% получаемого урона устойчивости, -0,15 модификатор форта врага при отправке в бой (только RT Online). +55% затрат на содержание пилота"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_agentOfDeath.QuadStabilityReceived.effectData0.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Agent Of Death: Decreased Stability Damage Taken"</t>
   </si>
   <si>
+    <t>"Особенность пилота «Агент смерти»: ниже получаемый урон устойчивости"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_agentOfDeath.QuadStabilityReceived.effectData0.Details</t>
   </si>
   <si>
     <t>"Incoming stability damage reduced by [AMT]."</t>
   </si>
   <si>
+    <t>"Получаемый урон устойчивости снижен на [AMT]."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Arcadia.quirkName</t>
   </si>
   <si>
     <t>"&lt;color=#FF9D00&gt;Event System Arcadia&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"&lt;color=#FF9D00&gt;Ивент в системе Arcadia&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Arcadia.description</t>
   </si>
   <si>
     <t>"Target System selected via event"</t>
   </si>
   <si>
+    <t>"Целевая система, выбранная через ивент"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Babylon.quirkName</t>
   </si>
   <si>
     <t>"&lt;color=#FF9D00&gt;Event System Babylon&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"&lt;color=#FF9D00&gt;Ивент в системе Babylon&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Babylon.description</t>
   </si>
   <si>
@@ -918,6 +1275,9 @@
     <t>"&lt;color=#FF9D00&gt;Event System Bearclaw&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"&lt;color=#FF9D00&gt;Ивент в системе Bearclaw&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Bearclaw.description</t>
   </si>
   <si>
@@ -927,6 +1287,9 @@
     <t>"&lt;color=#FF9D00&gt;Event System Circe&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"&lt;color=#FF9D00&gt;Ивент в системе Circe&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Circe.description</t>
   </si>
   <si>
@@ -936,6 +1299,9 @@
     <t>"&lt;color=#FF9D00&gt;Event System Dagda&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"&lt;color=#FF9D00&gt;Ивент в системе Dagda&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Dagda.description</t>
   </si>
   <si>
@@ -945,6 +1311,9 @@
     <t>"&lt;color=#FF9D00&gt;Event System Eden&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"&lt;color=#FF9D00&gt;Ивент в системе Eden&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Eden.description</t>
   </si>
   <si>
@@ -954,6 +1323,9 @@
     <t>"&lt;color=#FF9D00&gt;Event System Fasa&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"&lt;color=#FF9D00&gt;Ивент в системе Fasa&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Fasa.description</t>
   </si>
   <si>
@@ -963,6 +1335,9 @@
     <t>"Event System Fletcher (CC)"</t>
   </si>
   <si>
+    <t>"Ивент в системе Fletcher (CC)"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_FletcherCC.description</t>
   </si>
   <si>
@@ -972,6 +1347,9 @@
     <t>"Event System Galatea"</t>
   </si>
   <si>
+    <t>"Ивент в системе Galatea"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Galatea.description</t>
   </si>
   <si>
@@ -981,6 +1359,9 @@
     <t>"Event System Gibbs"</t>
   </si>
   <si>
+    <t>"Ивент в системе Gibbs"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Gibbs.description</t>
   </si>
   <si>
@@ -990,6 +1371,9 @@
     <t>"Event System Novaya Zemlya"</t>
   </si>
   <si>
+    <t>"Ивент в системе Новая Земля"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Novaya_Zemlya.description</t>
   </si>
   <si>
@@ -999,6 +1383,9 @@
     <t>"Event System Radstadt"</t>
   </si>
   <si>
+    <t>"Ивент в системе Radstadt"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Radstadt.description</t>
   </si>
   <si>
@@ -1008,6 +1395,9 @@
     <t>"&lt;color=#FF9D00&gt;Event System Radulov&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"&lt;color=#FF9D00&gt;Ивент в системе Radulov&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Radulov.description</t>
   </si>
   <si>
@@ -1017,6 +1407,9 @@
     <t>"Event System Rasalhague"</t>
   </si>
   <si>
+    <t>"Ивент в Расальхаге"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Rasalhague.description</t>
   </si>
   <si>
@@ -1026,6 +1419,9 @@
     <t>"&lt;color=#FF9D00&gt;Event System StranaMechty&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"&lt;color=#FF9D00&gt;Ивент в системе StranaMechty&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_StranaMechty.description</t>
   </si>
   <si>
@@ -1035,6 +1431,9 @@
     <t>"&lt;color=#FF9D00&gt;Event System Tokasha&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"&lt;color=#FF9D00&gt;Ивент в системе Tokasha&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Tokasha.description</t>
   </si>
   <si>
@@ -1044,6 +1443,9 @@
     <t>"Event System Vipaava"</t>
   </si>
   <si>
+    <t>"Ивент в системе Vipaava"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_Travel_to_Vipaava.description</t>
   </si>
   <si>
@@ -1059,30 +1461,45 @@
     <t>"+1 Missile Evasion Ignore, +1 Energy Accuracy. +55% Pilot Upkeep"</t>
   </si>
   <si>
+    <t>"Ракеты игнорируют +1 уклонения, +1 точность энергетики. +55% за содержание пилота"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_amarisEnabler.StatusEffect-amarisEnabler-EnhMS-ClusterBonusLRM.effectData0.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Amaris Enabler: Increased Missile Evasive Pips Ignore"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Amaris Enabler: ракеты игнорируют больше шевронов уклонения"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_amarisEnabler.StatusEffect-amarisEnabler-EAcc.effectData1.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Amaris Enabler: Improved Energy Accuracy"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Amaris Enabler: выше точность энергетики"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_amarisEnabler.StatusEffect-amarisEnabler-EnhMS-ClusterBonusLRM.effectData0.Details</t>
   </si>
   <si>
     <t>"Substantially increases the clustering of this unit's LRM weapons and boosts the stability damage of SRMs by 50%."</t>
   </si>
   <si>
+    <t>"Значительно увеличивает кучность LRM этого юнита и повышает урон устойчивости от SRM на 50%."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_amarisEnabler.StatusEffect-amarisEnabler-EAcc.effectData1.Details</t>
   </si>
   <si>
     <t>"+1Acc for Energy Weapons."</t>
   </si>
   <si>
+    <t>"+1точность энерг. оружия."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_bigIronOnHisHip.quirkName</t>
   </si>
   <si>
@@ -1095,36 +1512,54 @@
     <t>"+1 Bolt-On/Hand-Held Accuracy. +10% Bolt-On/Hand-Held Damage +50% Pilot Upkeep"</t>
   </si>
   <si>
+    <t>"+1 точность и +10 урон для Bolt-On/Hand-Held оружия. +50% за содержание пилота"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_bigIronOnHisHip.BIOHH_MeleeAccuracy3.effectData0.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Big Iron On His Hip: Improved Hand Held Accuracy"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Big Iron On His Hip: выше точность оружия в руках"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_bigIronOnHisHip.BIOHH_MeleeAccuracy3.effectData1.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Big Iron On His Hip: Improved BoltOn Accuracy"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Big Iron On His Hip: выше точность BoltOn оружия"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_bigIronOnHisHip.BIOHH_HandHeld_Damage.effectData2.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Big Iron On His Hip: Increased Hand Held Damage Per shot"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Big Iron On His Hip: выше урон Hand Held оружия за выстрел"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_bigIronOnHisHip.BIOHH_BoltOn_Damage.effectData3.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Big Iron On His Hip: Increased BoltOn Damage Per shot"</t>
   </si>
   <si>
+    <t>"Особенность пилота - Big Iron On His Hip: выше урон BoltOn оружия за выстрел"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_bigIronOnHisHip.BIOHH_MeleeAccuracy3.effectData0.Details</t>
   </si>
   <si>
     <t>"+1 Acc for PPC Weapons."</t>
   </si>
   <si>
+    <t>"+1 точность PPC."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_bigIronOnHisHip.BIOHH_MeleeAccuracy3.effectData1.Details</t>
   </si>
   <si>
@@ -1134,6 +1569,9 @@
     <t>"Pilot has Mastered the Chassis."</t>
   </si>
   <si>
+    <t>"Пилот стал мастером на этом шасси."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_bigIronOnHisHip.BIOHH_BoltOn_Damage.effectData3.Details</t>
   </si>
   <si>
@@ -1143,24 +1581,36 @@
     <t>"Pilot Quirk Primus Martial: Zoom Attack"</t>
   </si>
   <si>
+    <t>"Особенность пилота - «Военный регент»: атака с Zoom"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_primusMartial.Zoom Vision Effect.effectData3.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk Primus Martial: Zoom Vision"</t>
   </si>
   <si>
+    <t>"Особенность пилота - «Военный регент»: Zoom Vision"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_primusMartial.Zoom Attack Effect.effectData2.Details</t>
   </si>
   <si>
     <t>"range bracket bonus accuracy"</t>
   </si>
   <si>
+    <t>"бонусная точность диапазона"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_primusMartial.Zoom Vision Effect.effectData3.Details</t>
   </si>
   <si>
     <t>"Grant vision within range"</t>
   </si>
   <si>
+    <t>"Даёт видение в пределах своей дальности"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_tacoTruckLocomotion.quirkName</t>
   </si>
   <si>
@@ -1173,16 +1623,25 @@
     <t>"+20 affinity with all light mechs (applied in combat)"</t>
   </si>
   <si>
+    <t>"+20 аффинити на всех лёгких мехах (применяется в бою)"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_whoLetTheDogsOut.quirkName</t>
   </si>
   <si>
     <t>"Who Let The Dogs Out?"</t>
   </si>
   <si>
+    <t>"Кто выпустил собак?"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pilot_whoLetTheDogsOut.description</t>
   </si>
   <si>
-    <t>"Pilot can call in Battlemech reinforcements during battle (reinforcement under AI Control). 250% Pilot Upkeep."</t>
+    <t>"Pilot can call in Battlemech reinforcements during battle (reinforcement under AI Control). +250% Pilot Upkeep."</t>
+  </si>
+  <si>
+    <t>"Пилот может вызвать боевого меха как подкрепление во время боя (подкрепление под управлением ИИ). +250% к содержанию пилота."</t>
   </si>
   <si>
     <t>pilotQuirkDef_pitytheFool.quirkName</t>
@@ -1191,96 +1650,144 @@
     <t>"&lt;color=#FF0000&gt;Pity the Fool&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"&lt;color=#FF0000&gt;Пожалейте глупца&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.description</t>
   </si>
   <si>
     <t>"+0.5 MechTech, +1 Walk Move Point, Increased Melee Accuracy, Damage and Hits, +85% Pilot Upkeep; BA Lance mates: Increased BA Initiative, BA +1 Evasive Pips Ignored, BA Improved Physical Weapon Hit Chance, BA Increased Piloting, Guts and Tactics"</t>
   </si>
   <si>
+    <t>"+0.5 мехтехов, +1 очко движения Walk, выше точность рукопашной и урон, +85% к зарплате; в составе BA: выше инициатива BA, BA игнорируют +1 шеврон уклонения, BA выше точность холодного оружия, BA выше Piloting, Guts и Tactics"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.pilot_pitytheFool_WalkSpeed.effectData0.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Walk Speed"</t>
   </si>
   <si>
+    <t>"Особенность пилота - &lt;color=#ff0000&gt;пожалейте глупца&lt;/color&gt;: выше скорость ходьбы"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.pilot_pitytheFool_MorePunch.effectData1.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Physical Weapon Extra Hits"</t>
   </si>
   <si>
+    <t>"Особенность пилота - &lt;color=#ff0000&gt;пожалейте глупца&lt;/color&gt;: больше доп. ударов холодным оружием"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.pilot_pitytheFool_HitChance.effectData2.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Improved Physical Weapon Hit Chance"</t>
   </si>
   <si>
+    <t>"Особенность пилота - &lt;color=#ff0000&gt;пожалейте глупца&lt;/color&gt;: увеличена точность холодного оружия"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.pilot_pitytheFool_MoreDamage.effectData3.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Physical Weapon Damage"</t>
   </si>
   <si>
+    <t>"Особенность пилота - &lt;color=#ff0000&gt;пожалейте глупца&lt;/color&gt;: выше урон холодным оружием"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.pilot_pitytheFool_StabilityDamage.effectData4.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Physical Weapon Stability Damage"</t>
   </si>
   <si>
+    <t>"Особенность пилота - &lt;color=#ff0000&gt;пожалейте глупца&lt;/color&gt;: выше урон устойчивости холодным оружием"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.StatusEffect-BA_Bearing.effectData5.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Lance Initiative"</t>
   </si>
   <si>
+    <t>"Особенность пилота - &lt;color=#ff0000&gt;пожалейте глупца&lt;/color&gt;: выше инициатива отряда"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.StatusEffect-BA_Bearing.effectData6.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Lance Evasive Pips Ignore"</t>
   </si>
   <si>
+    <t>"Особенность пилота - &lt;color=#ff0000&gt;Пожалейте глупца&lt;/color&gt;: отряд игнорирует больше шевронов уклонения"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.StatusEffect-BA_Bearing.effectData7.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Improved Lance Physical Weapon Hit Chance"</t>
   </si>
   <si>
+    <t>"Особенность пилота - &lt;color=#ff0000&gt;Пожалейте глупца&lt;/color&gt;: выше точность холодного оружия для отряда"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.StatusEffect-BA_Bearing.effectData8.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Lance Piloting"</t>
   </si>
   <si>
+    <t>"Особенность пилота - &lt;color=#ff0000&gt;Пожалейте глупца&lt;/color&gt;: Piloting повышен у отряда"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.StatusEffect-BA_Bearing.effectData9.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Lance Guts"</t>
   </si>
   <si>
+    <t>"Особенность пилота - &lt;color=#ff0000&gt;Пожалейте глупца&lt;/color&gt;: Guts повышен у отряда"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.StatusEffect-BA_Bearing.effectData10.Name</t>
   </si>
   <si>
     <t>"Pilot Quirk &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Lance Tactics"</t>
   </si>
   <si>
+    <t>"Особенность пилота - &lt;color=#ff0000&gt;Пожалейте глупца&lt;/color&gt;: выше Tactics отряда"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.pilot_pitytheFool_WalkSpeed.effectData0.Details</t>
   </si>
   <si>
     <t>"Increased Movement"</t>
   </si>
   <si>
+    <t>"Улучшенное передвижение"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.pilot_pitytheFool_MorePunch.effectData1.Details</t>
   </si>
   <si>
     <t>"Extra Punch Hits"</t>
   </si>
   <si>
+    <t>"Доп Punch удары"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.pilot_pitytheFool_HitChance.effectData2.Details</t>
   </si>
   <si>
     <t>"MeleeWeapon Accuracy Modifier"</t>
   </si>
   <si>
+    <t>"Модификатор точности холодного оружия"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.pilot_pitytheFool_MoreDamage.effectData3.Details</t>
   </si>
   <si>
@@ -1293,12 +1800,18 @@
     <t>"Provides +1 Initiative."</t>
   </si>
   <si>
+    <t>"Даёт +1 инициативы."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.StatusEffect-BA_Bearing.effectData6.Details</t>
   </si>
   <si>
     <t>"Provides +1 Evasive Pips Ignored."</t>
   </si>
   <si>
+    <t>"Даёт +1 к игнору шевронов уклонения."</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.StatusEffect-BA_Bearing.effectData7.Details</t>
   </si>
   <si>
@@ -1308,475 +1821,268 @@
     <t>"Buffs Piloting Skill"</t>
   </si>
   <si>
+    <t>"Усиляет Piloting"</t>
+  </si>
+  <si>
     <t>pilotQuirkDef_pitytheFool.StatusEffect-BA_Bearing.effectData9.Details</t>
   </si>
   <si>
     <t>pilotQuirkDef_pitytheFool.StatusEffect-BA_Bearing.effectData10.Details</t>
   </si>
   <si>
-    <t>"+10% прицельный залп. +3 точность Offensive Push; +15% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"Даёт +1 к инициативе и несколько других баффов."</t>
-  </si>
-  <si>
-    <t>"Командные консоли"</t>
-  </si>
-  <si>
-    <t>"Убийца"</t>
-  </si>
-  <si>
-    <t>"+1 к здоровью; +5% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"Атлетизм"</t>
-  </si>
-  <si>
-    <t>"+5% к сенсорам/обзору; +5% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"Улучшенная дальность сенсоров и обзора"</t>
-  </si>
-  <si>
-    <t>"Увеличивает дистанцию обнаружения целей на 50 м."</t>
-  </si>
-  <si>
-    <t>"ДИСТАНЦИЯ ОБНАРУЖЕНИЯ ЦЕЛЕЙ УВЕЛИЧЕНА"</t>
-  </si>
-  <si>
-    <t>"Любовь к книгам"</t>
-  </si>
-  <si>
-    <t>"+1 решимость; улучш. сопр. панике; +5% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"Получаемый урон устойчивости снижен на 10%."</t>
-  </si>
-  <si>
-    <t>"ВХОДЯЩИЙ УР. УСТОЙЧИВОСТИ ПОНИЖЕН"</t>
-  </si>
-  <si>
-    <t>"Храбрость"</t>
-  </si>
-  <si>
-    <t>"+1 шеврон уклонения; -1 точность."</t>
-  </si>
-  <si>
-    <t>"Осторожность"</t>
-  </si>
-  <si>
-    <t>"+1 решимость отряда; +1 мораль; +10% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"Даёт бонус к действиям, которые повышают мораль."</t>
-  </si>
-  <si>
-    <t>"РОСТ МОРАЛИ УВЕЛИЧЕН"</t>
-  </si>
-  <si>
-    <t>"Командующий"</t>
-  </si>
-  <si>
-    <t>"+5% к сенсорам/обзору; +0.5 мехтех; +10% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"Служба в КомСтар"</t>
-  </si>
-  <si>
-    <t>"Шанс 10% украсть 1000 C-bills у вас ИЛИ для вас."</t>
-  </si>
-  <si>
-    <t>"Связи с преступностью"</t>
-  </si>
-  <si>
-    <t>"-5% получ. ур. стаб.; улучш. сопр. панике; +5% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"Надёжность"</t>
-  </si>
-  <si>
-    <t>"+1 ECM укрытие и подавление; -1 мораль."</t>
-  </si>
-  <si>
-    <t>"Бесчестность"</t>
-  </si>
-  <si>
-    <t>"Шанс 5% украсть 500 C-bills у вас ИЛИ для вас."</t>
-  </si>
-  <si>
-    <t>"Непорядочность"</t>
-  </si>
-  <si>
-    <t>"+5% получ. ур. устойчивости; не катапультируется при панике; +1 точность Offensive Push."</t>
-  </si>
-  <si>
-    <t>"Алкоголизм"</t>
-  </si>
-  <si>
-    <t>"+5% урон/ур.устойчивости от Punch/Kick/физ. атак; +20% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"Модификатор урона"</t>
-  </si>
-  <si>
-    <t>"Мод. урона оружия ближнего боя"</t>
-  </si>
-  <si>
-    <t>"Гладиатор"</t>
-  </si>
-  <si>
-    <t>"+1 мораль; +5% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"Честность"</t>
-  </si>
-  <si>
-    <t>"+1 шеврон уклонения и +1 макс. укл.; -1 защита."</t>
-  </si>
-  <si>
-    <t>"Носитель генерирует доп. шеврон уворота от любого движения (до своего максимума)."</t>
-  </si>
-  <si>
-    <t>"МАНЕВР УКЛОНЕНИЯ"</t>
-  </si>
-  <si>
-    <t>"Даёт штраф ко всем атакам по носителю."</t>
-  </si>
-  <si>
-    <t>"ТЯЖЕЛЕЕ ПОПАСТЬ"</t>
-  </si>
-  <si>
-    <t>"Невезение"</t>
-  </si>
-  <si>
-    <t>"+1 шеврон уклонения; шанс случайно катапультироваться при падении."</t>
-  </si>
-  <si>
-    <t>"Растяпа"</t>
-  </si>
-  <si>
-    <t>"+0.5 мехтех; на 5% ниже цена и стоимость содержания улучшений Арго; +10% содержание пилота."</t>
-  </si>
-  <si>
-    <t>"Знание утерянных технологий"</t>
-  </si>
-  <si>
-    <t>"+0.5 кучность стрельбы; -10% шанс клина; +10% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"Прицельные выстрелы вдвое надежнее"</t>
-  </si>
-  <si>
-    <t>"Улучшенный прицельный выстрел"</t>
-  </si>
-  <si>
-    <t>"Существенно увеличивает кучность огня из орудий LRM типа."</t>
-  </si>
-  <si>
-    <t>"Кучность выстрелов из лазерного оружия повышена"</t>
-  </si>
-  <si>
-    <t>"Везение"</t>
-  </si>
-  <si>
-    <t>"+1 инициатива; +5% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"Мехвоин"</t>
-  </si>
-  <si>
-    <t>"На 5% ниже стоимость содержания Арго; шанс 5% получить 1000 C-bills каждый день; +10% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"Торговец"</t>
-  </si>
-  <si>
-    <t>"+1 бонус к здоровью; -1 отдача; +1 точность Offensive Push; +15% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"Армейская служба"</t>
-  </si>
-  <si>
-    <t>"На 5% ниже цена и стоимость содержания улучшений Арго, связанных с медициной и моралью; +15% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"Аристократия"</t>
-  </si>
-  <si>
-    <t>"+2.5% к сенсорам/обзору отряда; +10% стоимость содержания."</t>
-  </si>
-  <si>
-    <t>"Офицер"</t>
-  </si>
-  <si>
-    <t>"Игнорирует +1 шеврон уклонения; -1 макс. уклонение."</t>
-  </si>
-  <si>
-    <t>"+2 тчн., +50% криты, +30% дальность, -50% мин. дист. для всего вооружения."</t>
-  </si>
-  <si>
-    <t>"Безрассудство"</t>
-  </si>
-  <si>
-    <t>"На 5% ниже цена и стоимость содержания улучшений Арго; +10% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"Космонавт"</t>
-  </si>
-  <si>
-    <t>"+1 мехтех; на 5% ниже цена и стоимость содержания мехотсеков; 10% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"Тех"</t>
-  </si>
-  <si>
-    <t>"-50% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"Обеспеченность"</t>
-  </si>
-  <si>
-    <t>"У пилота иммунитет к травмам от перегрева, внутренних подрывов и обратной отдачи от DNI. 25% стоимость содержания пилота."</t>
-  </si>
-  <si>
-    <t>"Шунтирование"</t>
-  </si>
-  <si>
-    <t>"Нагрев понижен на 10%"</t>
-  </si>
-  <si>
-    <t>"Снижает нагрев"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Бесчестность: выше Guts"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Бесчестность: ниже радиозаметность"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Бесчестность: ниже визуальная заметность"</t>
-  </si>
-  <si>
-    <t>"Повышает навык Guts"</t>
-  </si>
-  <si>
-    <t>"Статус-эффект радиозаметности"</t>
-  </si>
-  <si>
-    <t>"Усиленная пропаганда"</t>
-  </si>
-  <si>
-    <t>"+4 к охлаждению, +1 точность баллистики, +0,1 модификатор Fort работодателя при отправке в бой (только RT Online). +65% к зарплате пилота"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Усиленная пропаганда: повышенное охлаждение"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Усиленная пропаганда: выше точность баллистики"</t>
-  </si>
-  <si>
-    <t>"Теплоёмкость повышена на 2."</t>
-  </si>
-  <si>
-    <t>"Шанс попадания из баллистического оружия улучшен на [AMT]."</t>
-  </si>
-  <si>
-    <t>"+0,5 медтех очков, +0.5 мехтех, +1 очко перемещения Walk, -10% шанса паники для членов отряда, +85% к содержанию пилота"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Ilchi Overdrive: выше скорость ходьбы"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Ilchi Overdrive: ниже шанс паники отряда"</t>
-  </si>
-  <si>
-    <t>"Сильнее в ближнем бою и быстрее"</t>
-  </si>
-  <si>
-    <t>"Снижает шанс паники на 10%."</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Ei Master: выше Gunnery"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Ei Master: выше Piloting"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Ei Master: больше шевронов уклонения"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Ei Master: выше точность"</t>
-  </si>
-  <si>
-    <t>"Усиляет Gunnery"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Herald Of Gifs: выше точность непрямого огня"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Herald Of Gifs: выше точность огня непрямой наводкой"</t>
-  </si>
-  <si>
-    <t>"+1 точности ракетных атак с закрытых позиций."</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Вдохновляющее присутствие: выше Guts отряда"</t>
-  </si>
-  <si>
-    <t>"Повышает навык Tactics"</t>
-  </si>
-  <si>
-    <t>"Хан с железным сердцем"</t>
-  </si>
-  <si>
-    <t>"+1 мехтех, +1 здоровье, -5% получаемый урон, +80% содержание пилота"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Iron Hearted Khan: ниже получаемый урон"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Iron Hearted Khan: ниже получаемый АоЕ урон"</t>
-  </si>
-  <si>
-    <t>"Снижение урона"</t>
-  </si>
-  <si>
-    <t>"+30 аффинити на тяжелых мехах и +20 аффинити для остального отряда в тяжелых мехах (активируется в бою), +70% к зарплате пилота"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Just Wanted Infernos: выше точность SRM"</t>
-  </si>
-  <si>
-    <t>"Прототипная SRM-кабина Arctic Wolf."</t>
-  </si>
-  <si>
-    <t>"Агент смерти"</t>
-  </si>
-  <si>
-    <t>"-15% получаемого урона устойчивости, -0,15 модификатор форта врага при отправке в бой (только RT Online). +55% затрат на содержание пилота"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота «Агент смерти»: ниже получаемый урон устойчивости"</t>
-  </si>
-  <si>
-    <t>"Получаемый урон устойчивости снижен на [AMT]."</t>
-  </si>
-  <si>
-    <t>"Ивент в системе Fletcher (CC)"</t>
-  </si>
-  <si>
-    <t>"Ивент в системе Galatea"</t>
-  </si>
-  <si>
-    <t>"Ивент в системе Gibbs"</t>
-  </si>
-  <si>
-    <t>"Ивент в системе Новая Земля"</t>
-  </si>
-  <si>
-    <t>"Ивент в системе Radstadt"</t>
-  </si>
-  <si>
-    <t>"Ивент в Расальхаге"</t>
-  </si>
-  <si>
-    <t>"Ивент в системе Vipaava"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Amaris Enabler: Increased Missile Evasive Pips Ignore"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Amaris Enabler: выше точность энергетики"</t>
-  </si>
-  <si>
-    <t>"Значительно увеличивает кучность LRM этого юнита и повышает урон устойчивости от SRM на 50%."</t>
-  </si>
-  <si>
-    <t>"+1точность энерг. оружия."</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Big Iron On His Hip: Improved Hand Held Accuracy"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Big Iron On His Hip: Improved BoltOn Accuracy"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Big Iron On His Hip: Increased Hand Held Damage Per shot"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Big Iron On His Hip: Increased BoltOn Damage Per shot"</t>
-  </si>
-  <si>
-    <t>"+1 точность PPC."</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Primus Martial: Zoom Attack"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - Primus Martial: Zoom Vision"</t>
-  </si>
-  <si>
-    <t>"бонусная точность диапазона"</t>
-  </si>
-  <si>
-    <t>"Даёт видение в пределах своей дальности"</t>
-  </si>
-  <si>
-    <t>"Кто выпустил собак?"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Walk Speed"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Physical Weapon Extra Hits"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Improved Physical Weapon Hit Chance"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Physical Weapon Damage"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Physical Weapon Stability Damage"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Lance Initiative"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Lance Evasive Pips Ignore"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Improved Lance Physical Weapon Hit Chance"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Lance Piloting"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: Increased Lance Guts"</t>
-  </si>
-  <si>
-    <t>"Особенность пилота - &lt;color=#ff0000&gt;pity The Fool&lt;/color&gt;: выше Tactics отряда"</t>
-  </si>
-  <si>
-    <t>"Улучшенное передвижение"</t>
-  </si>
-  <si>
-    <t>"Доп Punch удары"</t>
-  </si>
-  <si>
-    <t>"Модификатор точности холодного оружия"</t>
-  </si>
-  <si>
-    <t>"Даёт +1 инициативы."</t>
-  </si>
-  <si>
-    <t>"Усиляет Piloting"</t>
-  </si>
-  <si>
-    <t>"Усиляет Guts"</t>
-  </si>
-  <si>
-    <t>"Усиляет Tactics"</t>
+    <t>pilotQuirkDef_pilot_clanFuMartialArtist.quirkName</t>
+  </si>
+  <si>
+    <t>"Clan-Fu Master"</t>
+  </si>
+  <si>
+    <t>"Мастер Клан-фу"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_clanFuMartialArtist.description</t>
+  </si>
+  <si>
+    <t>"+7.5% Punch/Kick Damage, +2 Punch Attacks, Always Destabilizes on Hit. +35% Pilot Upkeep."</t>
+  </si>
+  <si>
+    <t>"+7.5% урон Punch/Kick, +2 атаки Punch, всегда убирает устойчивость при попадании. +35% к содержанию пилота."</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_clanFuMartialArtist.TunedActuatorsAffinityDmgPunch.effectData0.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Clan-fu Master: Increased Punch Damage"</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Clan-fu Master: повышенный урон от Punch атаки"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_clanFuMartialArtist.AsskickahAffinityKickDMG.effectData1.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Clan-fu Master: Increased Kick Damage"</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Clan-fu Master: выше урон от Kick атаки"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_clanFuMartialArtist.MeleeAttacks_Punch.effectData2.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Clan-fu Master: Increased Punch Extra Hits"</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Clan-fu Master: больше доп. ударов Punch"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_clanFuMartialArtist.ComPowChicken_Stability_Mod.effectData3.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Clan-fu Master: Increased Bonus Flat Punch Stability Damage"</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Clan-fu Master: выше бонусный Punch урон устойчивости"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_clanFuMartialArtist.TunedActuatorsAffinityDmgPunch.effectData0.Details</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_clanFuMartialArtist.AsskickahAffinityKickDMG.effectData1.Details</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_clanFuMartialArtist.MeleeAttacks_Punch.effectData2.Details</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_clanFuMartialArtist.ComPowChicken_Stability_Mod.effectData3.Details</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_supportRangler.RTOPilotWalkSpeed.effectData0.Name</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Support Rangler: Increased Walk Speed"</t>
+  </si>
+  <si>
+    <t>"Pilot Quirk Support Rangler: выше скорость ходьбы"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_supportRangler.RTOPilotWalkSpeed.effectData0.Details</t>
+  </si>
+  <si>
+    <t>"Walk Speed Inceased by 20%"</t>
+  </si>
+  <si>
+    <t>"Скорость Walk повышена на 20%"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_inspiringPresence.StatusEffect-Coordination-Guts.effectData0.Name</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_inspiringPresence.StatusEffect-Coordination-Guts.effectData0.Details</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_blinkAndYoullMissIt.quirkName</t>
+  </si>
+  <si>
+    <t>"Blink And You'll Miss It"</t>
+  </si>
+  <si>
+    <t>"Раз моргни и упустишь"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_blinkAndYoullMissIt.description</t>
+  </si>
+  <si>
+    <t>"+21 affinity with all light mechs (applied in combat)"</t>
+  </si>
+  <si>
+    <t>"+21 к аффинити на всех лёгких мехах (применяется в бою)"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_builtLikeaBrick.quirkName</t>
+  </si>
+  <si>
+    <t>"Built Like a Brick, Shoots Like a Sniper"</t>
+  </si>
+  <si>
+    <t>"Слеплен как кирпич, стреляет как снайпер"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_builtLikeaBrick.description</t>
+  </si>
+  <si>
+    <t>"+42 affinity with all heavy mechs (applied in combat)"</t>
+  </si>
+  <si>
+    <t>"+42 к аффинити на всех тяжёлых мехах (применяется в бою)"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_doomonTwoLegs.quirkName</t>
+  </si>
+  <si>
+    <t>"Doom on Two Legs"</t>
+  </si>
+  <si>
+    <t>"Погибель на двух ножках"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_doomonTwoLegs.description</t>
+  </si>
+  <si>
+    <t>"+42 affinity with all assault mechs (applied in combat)"</t>
+  </si>
+  <si>
+    <t>"+42 к аффинити на всех штурмовых мехах (применяется в бою)"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_goldilocksGunnery.quirkName</t>
+  </si>
+  <si>
+    <t>"Goldilocks Gunnery"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_goldilocksGunnery.description</t>
+  </si>
+  <si>
+    <t>"+21 affinity with all medium mechs (applied in combat)"</t>
+  </si>
+  <si>
+    <t>"+21 к аффинити на всех средних мехах (применяется в бою)"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_nowYouSeeMe.quirkName</t>
+  </si>
+  <si>
+    <t>"Now You See Me, Now You Don't"</t>
+  </si>
+  <si>
+    <t>"Вот я есть, а вот меня нет"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_nowYouSeeMe.description</t>
+  </si>
+  <si>
+    <t>"+42 affinity with all light mechs (applied in combat)"</t>
+  </si>
+  <si>
+    <t>"+42 к аффинити на всех лёгких мехах (применяется в бою)"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_surgicalStriker.quirkName</t>
+  </si>
+  <si>
+    <t>"Surgical Striker"</t>
+  </si>
+  <si>
+    <t>"Хирургический удар"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_surgicalStriker.description</t>
+  </si>
+  <si>
+    <t>"+42 affinity with all medium mechs (applied in combat)"</t>
+  </si>
+  <si>
+    <t>"+42 к аффинити на всех средних мехах (применяется в бою)"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_tankyWithaSideofSniper.quirkName</t>
+  </si>
+  <si>
+    <t>"Tanky With a Side of Sniper"</t>
+  </si>
+  <si>
+    <t>"Танкующий, с уклоном в снайпера"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_tankyWithaSideofSniper.description</t>
+  </si>
+  <si>
+    <t>"+21 affinity with all heavy mechs (applied in combat)"</t>
+  </si>
+  <si>
+    <t>"+21 к аффинити на всех тяжёлых мехах (применяется в бою)"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_walkingApocalypse.quirkName</t>
+  </si>
+  <si>
+    <t>"Walking Apocalypse"</t>
+  </si>
+  <si>
+    <t>"Ходячий апокалипсис"</t>
+  </si>
+  <si>
+    <t>pilotQuirkDef_pilot_walkingApocalypse.description</t>
+  </si>
+  <si>
+    <t>"+21 affinity with all assault mechs (applied in combat)"</t>
+  </si>
+  <si>
+    <t>"+21 к аффинити на всех штурмовых мехах (применяется в бою)"</t>
+  </si>
+  <si>
+    <t>pilot_test_kerensky.Description.Details</t>
+  </si>
+  <si>
+    <t>"\"Regent and Protector of the Star League\", \"Defender of the First Lord\" &amp; \"Great Father\" these are just some of the titles bestowed upon Alexandr Kerensky in life and in death.\n\nSome say that even in death the spirit of Kerensky lives on, occasionally giving aid to mechwarriors it finds worthy, guiding them to great things."</t>
+  </si>
+  <si>
+    <t>pilot_test_kerensky.Description.FirstName</t>
+  </si>
+  <si>
+    <t>"Aleksandr"</t>
+  </si>
+  <si>
+    <t>pilot_test_kerensky.Description.LastName</t>
+  </si>
+  <si>
+    <t>"Kerensky"</t>
+  </si>
+  <si>
+    <t>pilot_test_kerensky.Description.Callsign</t>
+  </si>
+  <si>
+    <t>"Protector"</t>
   </si>
 </sst>
 </file>
@@ -2117,17 +2423,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="78.28515625" style="2" customWidth="1"/>
-    <col min="4" max="11" width="9.140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="16" width="9.140625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2138,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>430</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2">
         <v>1</v>
@@ -2146,13 +2452,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>431</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -2160,13 +2466,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>432</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -2174,13 +2480,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>433</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -2188,13 +2494,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>434</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -2202,13 +2508,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>435</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <v>6</v>
@@ -2216,13 +2522,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>436</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>7</v>
@@ -2230,13 +2536,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>437</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>8</v>
@@ -2244,13 +2550,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>9</v>
@@ -2258,13 +2564,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
@@ -2272,13 +2578,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>439</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>11</v>
@@ -2286,13 +2592,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>440</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>12</v>
@@ -2300,13 +2606,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>441</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2">
         <v>13</v>
@@ -2314,13 +2620,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>442</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2">
         <v>14</v>
@@ -2328,13 +2634,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2">
         <v>15</v>
@@ -2342,13 +2648,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>444</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2">
         <v>16</v>
@@ -2356,13 +2662,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>445</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2">
         <v>17</v>
@@ -2370,13 +2676,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>431</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
         <v>18</v>
@@ -2384,13 +2690,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>432</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2">
         <v>19</v>
@@ -2398,13 +2704,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>431</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2">
         <v>20</v>
@@ -2412,13 +2718,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>432</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2">
         <v>21</v>
@@ -2426,13 +2732,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>446</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2">
         <v>22</v>
@@ -2440,13 +2746,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>447</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2">
         <v>23</v>
@@ -2454,13 +2760,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2">
         <v>24</v>
@@ -2468,13 +2774,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>449</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2">
         <v>25</v>
@@ -2482,13 +2788,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>450</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2">
         <v>26</v>
@@ -2496,13 +2802,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>451</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2">
         <v>27</v>
@@ -2510,13 +2816,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>437</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2">
         <v>28</v>
@@ -2524,13 +2830,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2">
         <v>29</v>
@@ -2538,13 +2844,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>30</v>
@@ -2552,13 +2858,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>439</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>31</v>
@@ -2566,13 +2872,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2">
         <v>32</v>
@@ -2580,13 +2886,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2">
         <v>33</v>
@@ -2594,13 +2900,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>454</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2">
         <v>34</v>
@@ -2608,13 +2914,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>455</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2">
         <v>35</v>
@@ -2622,13 +2928,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>442</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2">
         <v>36</v>
@@ -2636,13 +2942,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2">
         <v>37</v>
@@ -2650,13 +2956,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>456</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2">
         <v>38</v>
@@ -2664,13 +2970,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>457</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2">
         <v>39</v>
@@ -2678,13 +2984,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>442</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2">
         <v>40</v>
@@ -2692,13 +2998,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="D41" s="2">
         <v>41</v>
@@ -2706,13 +3012,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>442</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2">
         <v>42</v>
@@ -2720,13 +3026,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="D43" s="2">
         <v>43</v>
@@ -2734,13 +3040,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>442</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2">
         <v>44</v>
@@ -2748,13 +3054,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2">
         <v>45</v>
@@ -2762,13 +3068,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>458</v>
+        <v>104</v>
       </c>
       <c r="D46" s="2">
         <v>46</v>
@@ -2776,13 +3082,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>459</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2">
         <v>47</v>
@@ -2790,13 +3096,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>460</v>
+        <v>110</v>
       </c>
       <c r="D48" s="2">
         <v>48</v>
@@ -2804,13 +3110,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>461</v>
+        <v>113</v>
       </c>
       <c r="D49" s="2">
         <v>49</v>
@@ -2818,13 +3124,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>442</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2">
         <v>50</v>
@@ -2832,13 +3138,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="D51" s="2">
         <v>51</v>
@@ -2846,13 +3152,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>462</v>
+        <v>118</v>
       </c>
       <c r="D52" s="2">
         <v>52</v>
@@ -2860,13 +3166,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>463</v>
+        <v>121</v>
       </c>
       <c r="D53" s="2">
         <v>53</v>
@@ -2874,13 +3180,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2">
         <v>54</v>
@@ -2888,13 +3194,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>465</v>
+        <v>127</v>
       </c>
       <c r="D55" s="2">
         <v>55</v>
@@ -2902,13 +3208,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="D56" s="2">
         <v>56</v>
@@ -2916,13 +3222,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>465</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2">
         <v>57</v>
@@ -2930,13 +3236,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="D58" s="2">
         <v>58</v>
@@ -2944,13 +3250,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>465</v>
+        <v>127</v>
       </c>
       <c r="D59" s="2">
         <v>59</v>
@@ -2958,13 +3264,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="D60" s="2">
         <v>60</v>
@@ -2972,13 +3278,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>465</v>
+        <v>127</v>
       </c>
       <c r="D61" s="2">
         <v>61</v>
@@ -2986,13 +3292,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="D62" s="2">
         <v>62</v>
@@ -3000,13 +3306,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>465</v>
+        <v>127</v>
       </c>
       <c r="D63" s="2">
         <v>63</v>
@@ -3014,13 +3320,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="D64" s="2">
         <v>64</v>
@@ -3028,13 +3334,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>465</v>
+        <v>127</v>
       </c>
       <c r="D65" s="2">
         <v>65</v>
@@ -3042,13 +3348,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>466</v>
+        <v>140</v>
       </c>
       <c r="D66" s="2">
         <v>66</v>
@@ -3056,13 +3362,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>467</v>
+        <v>143</v>
       </c>
       <c r="D67" s="2">
         <v>67</v>
@@ -3070,13 +3376,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>468</v>
+        <v>146</v>
       </c>
       <c r="D68" s="2">
         <v>68</v>
@@ -3084,13 +3390,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>469</v>
+        <v>149</v>
       </c>
       <c r="D69" s="2">
         <v>69</v>
@@ -3098,13 +3404,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>470</v>
+        <v>152</v>
       </c>
       <c r="D70" s="2">
         <v>70</v>
@@ -3112,13 +3418,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>471</v>
+        <v>155</v>
       </c>
       <c r="D71" s="2">
         <v>71</v>
@@ -3126,13 +3432,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>470</v>
+        <v>152</v>
       </c>
       <c r="D72" s="2">
         <v>72</v>
@@ -3140,13 +3446,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>471</v>
+        <v>155</v>
       </c>
       <c r="D73" s="2">
         <v>73</v>
@@ -3154,13 +3460,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>472</v>
+        <v>160</v>
       </c>
       <c r="D74" s="2">
         <v>74</v>
@@ -3168,13 +3474,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>473</v>
+        <v>163</v>
       </c>
       <c r="D75" s="2">
         <v>75</v>
@@ -3182,13 +3488,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>474</v>
+        <v>166</v>
       </c>
       <c r="D76" s="2">
         <v>76</v>
@@ -3196,13 +3502,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>475</v>
+        <v>169</v>
       </c>
       <c r="D77" s="2">
         <v>77</v>
@@ -3210,13 +3516,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>442</v>
+        <v>40</v>
       </c>
       <c r="D78" s="2">
         <v>78</v>
@@ -3224,13 +3530,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="D79" s="2">
         <v>79</v>
@@ -3238,13 +3544,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>476</v>
+        <v>174</v>
       </c>
       <c r="D80" s="2">
         <v>80</v>
@@ -3252,13 +3558,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>477</v>
+        <v>177</v>
       </c>
       <c r="D81" s="2">
         <v>81</v>
@@ -3266,13 +3572,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>478</v>
+        <v>180</v>
       </c>
       <c r="D82" s="2">
         <v>82</v>
@@ -3280,13 +3586,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>479</v>
+        <v>183</v>
       </c>
       <c r="D83" s="2">
         <v>83</v>
@@ -3294,13 +3600,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>480</v>
+        <v>186</v>
       </c>
       <c r="D84" s="2">
         <v>84</v>
@@ -3308,13 +3614,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>481</v>
+        <v>189</v>
       </c>
       <c r="D85" s="2">
         <v>85</v>
@@ -3322,13 +3628,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>482</v>
+        <v>192</v>
       </c>
       <c r="D86" s="2">
         <v>86</v>
@@ -3336,13 +3642,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>483</v>
+        <v>195</v>
       </c>
       <c r="D87" s="2">
         <v>87</v>
@@ -3350,13 +3656,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>484</v>
+        <v>198</v>
       </c>
       <c r="D88" s="2">
         <v>88</v>
@@ -3364,13 +3670,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>485</v>
+        <v>201</v>
       </c>
       <c r="D89" s="2">
         <v>89</v>
@@ -3378,13 +3684,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>431</v>
+        <v>5</v>
       </c>
       <c r="D90" s="2">
         <v>90</v>
@@ -3392,13 +3698,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>432</v>
+        <v>8</v>
       </c>
       <c r="D91" s="2">
         <v>91</v>
@@ -3406,13 +3712,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>486</v>
+        <v>206</v>
       </c>
       <c r="D92" s="2">
         <v>92</v>
@@ -3420,13 +3726,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>487</v>
+        <v>209</v>
       </c>
       <c r="D93" s="2">
         <v>93</v>
@@ -3434,13 +3740,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>488</v>
+        <v>212</v>
       </c>
       <c r="D94" s="2">
         <v>94</v>
@@ -3448,13 +3754,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>489</v>
+        <v>215</v>
       </c>
       <c r="D95" s="2">
         <v>95</v>
@@ -3462,13 +3768,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>431</v>
+        <v>5</v>
       </c>
       <c r="D96" s="2">
         <v>96</v>
@@ -3476,13 +3782,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>432</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2">
         <v>97</v>
@@ -3490,13 +3796,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>490</v>
+        <v>220</v>
       </c>
       <c r="D98" s="2">
         <v>98</v>
@@ -3504,13 +3810,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>491</v>
+        <v>223</v>
       </c>
       <c r="D99" s="2">
         <v>99</v>
@@ -3518,13 +3824,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>492</v>
+        <v>226</v>
       </c>
       <c r="D100" s="2">
         <v>100</v>
@@ -3532,13 +3838,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>493</v>
+        <v>229</v>
       </c>
       <c r="D101" s="2">
         <v>101</v>
@@ -3546,13 +3852,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>437</v>
+        <v>23</v>
       </c>
       <c r="D102" s="2">
         <v>102</v>
@@ -3560,13 +3866,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2">
         <v>103</v>
@@ -3574,13 +3880,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>104</v>
@@ -3588,13 +3894,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>439</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>105</v>
@@ -3602,13 +3908,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>494</v>
+        <v>236</v>
       </c>
       <c r="D106" s="2">
         <v>106</v>
@@ -3616,13 +3922,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>495</v>
+        <v>239</v>
       </c>
       <c r="D107" s="2">
         <v>107</v>
@@ -3630,13 +3936,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>496</v>
+        <v>242</v>
       </c>
       <c r="D108" s="2">
         <v>108</v>
@@ -3644,13 +3950,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="D109" s="2">
         <v>109</v>
@@ -3658,13 +3964,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>470</v>
+        <v>152</v>
       </c>
       <c r="D110" s="2">
         <v>110</v>
@@ -3672,13 +3978,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>471</v>
+        <v>155</v>
       </c>
       <c r="D111" s="2">
         <v>111</v>
@@ -3686,13 +3992,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>497</v>
+        <v>249</v>
       </c>
       <c r="D112" s="2">
         <v>112</v>
@@ -3700,13 +4006,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>498</v>
+        <v>252</v>
       </c>
       <c r="D113" s="2">
         <v>113</v>
@@ -3714,13 +4020,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>499</v>
+        <v>255</v>
       </c>
       <c r="D114" s="2">
         <v>114</v>
@@ -3728,13 +4034,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>500</v>
+        <v>258</v>
       </c>
       <c r="D115" s="2">
         <v>115</v>
@@ -3742,13 +4048,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>501</v>
+        <v>261</v>
       </c>
       <c r="D116" s="2">
         <v>116</v>
@@ -3756,13 +4062,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>502</v>
+        <v>264</v>
       </c>
       <c r="D117" s="2">
         <v>117</v>
@@ -3770,13 +4076,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>503</v>
+        <v>267</v>
       </c>
       <c r="D118" s="2">
         <v>118</v>
@@ -3784,13 +4090,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>504</v>
+        <v>270</v>
       </c>
       <c r="D119" s="2">
         <v>119</v>
@@ -3798,13 +4104,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>505</v>
+        <v>273</v>
       </c>
       <c r="D120" s="2">
         <v>120</v>
@@ -3812,13 +4118,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>506</v>
+        <v>276</v>
       </c>
       <c r="D121" s="2">
         <v>121</v>
@@ -3826,13 +4132,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
       <c r="D122" s="2">
         <v>122</v>
@@ -3840,13 +4146,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>506</v>
+        <v>276</v>
       </c>
       <c r="D123" s="2">
         <v>123</v>
@@ -3854,13 +4160,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
       <c r="D124" s="2">
         <v>124</v>
@@ -3868,13 +4174,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>508</v>
+        <v>284</v>
       </c>
       <c r="D125" s="2">
         <v>125</v>
@@ -3882,13 +4188,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>509</v>
+        <v>287</v>
       </c>
       <c r="D126" s="2">
         <v>126</v>
@@ -3896,13 +4202,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>510</v>
+        <v>290</v>
       </c>
       <c r="D127" s="2">
         <v>127</v>
@@ -3910,13 +4216,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>211</v>
+        <v>292</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>511</v>
+        <v>293</v>
       </c>
       <c r="D128" s="2">
         <v>128</v>
@@ -3924,13 +4230,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>512</v>
+        <v>296</v>
       </c>
       <c r="D129" s="2">
         <v>129</v>
@@ -3938,13 +4244,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>512</v>
+        <v>296</v>
       </c>
       <c r="D130" s="2">
         <v>130</v>
@@ -3952,13 +4258,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>513</v>
+        <v>300</v>
       </c>
       <c r="D131" s="2">
         <v>131</v>
@@ -3966,13 +4272,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>514</v>
+        <v>303</v>
       </c>
       <c r="D132" s="2">
         <v>132</v>
@@ -3980,13 +4286,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>515</v>
+        <v>306</v>
       </c>
       <c r="D133" s="2">
         <v>133</v>
@@ -3994,13 +4300,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>516</v>
+        <v>309</v>
       </c>
       <c r="D134" s="2">
         <v>134</v>
@@ -4008,13 +4314,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>224</v>
+        <v>311</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>517</v>
+        <v>312</v>
       </c>
       <c r="D135" s="2">
         <v>135</v>
@@ -4022,13 +4328,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>518</v>
+        <v>315</v>
       </c>
       <c r="D136" s="2">
         <v>136</v>
@@ -4036,13 +4342,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>227</v>
+        <v>316</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>228</v>
+        <v>317</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>228</v>
+        <v>317</v>
       </c>
       <c r="D137" s="2">
         <v>137</v>
@@ -4050,13 +4356,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>519</v>
+        <v>320</v>
       </c>
       <c r="D138" s="2">
         <v>138</v>
@@ -4064,13 +4370,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>520</v>
+        <v>323</v>
       </c>
       <c r="D139" s="2">
         <v>139</v>
@@ -4078,13 +4384,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>521</v>
+        <v>326</v>
       </c>
       <c r="D140" s="2">
         <v>140</v>
@@ -4092,13 +4398,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>235</v>
+        <v>327</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>522</v>
+        <v>329</v>
       </c>
       <c r="D141" s="2">
         <v>141</v>
@@ -4106,13 +4412,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>523</v>
+        <v>332</v>
       </c>
       <c r="D142" s="2">
         <v>142</v>
@@ -4120,13 +4426,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>524</v>
+        <v>335</v>
       </c>
       <c r="D143" s="2">
         <v>143</v>
@@ -4134,13 +4440,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>525</v>
+        <v>338</v>
       </c>
       <c r="D144" s="2">
         <v>144</v>
@@ -4148,13 +4454,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>526</v>
+        <v>341</v>
       </c>
       <c r="D145" s="2">
         <v>145</v>
@@ -4162,13 +4468,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>245</v>
+        <v>342</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>246</v>
+        <v>343</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>527</v>
+        <v>344</v>
       </c>
       <c r="D146" s="2">
         <v>146</v>
@@ -4176,13 +4482,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>247</v>
+        <v>345</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>248</v>
+        <v>346</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>528</v>
+        <v>347</v>
       </c>
       <c r="D147" s="2">
         <v>147</v>
@@ -4190,13 +4496,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>249</v>
+        <v>348</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>442</v>
+        <v>40</v>
       </c>
       <c r="D148" s="2">
         <v>148</v>
@@ -4204,13 +4510,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>250</v>
+        <v>349</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="D149" s="2">
         <v>149</v>
@@ -4218,13 +4524,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>529</v>
+        <v>352</v>
       </c>
       <c r="D150" s="2">
         <v>150</v>
@@ -4232,13 +4538,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>530</v>
+        <v>355</v>
       </c>
       <c r="D151" s="2">
         <v>151</v>
@@ -4246,13 +4552,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>255</v>
+        <v>356</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>256</v>
+        <v>357</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>531</v>
+        <v>358</v>
       </c>
       <c r="D152" s="2">
         <v>152</v>
@@ -4260,13 +4566,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>257</v>
+        <v>359</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>256</v>
+        <v>357</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>531</v>
+        <v>358</v>
       </c>
       <c r="D153" s="2">
         <v>153</v>
@@ -4274,13 +4580,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>532</v>
+        <v>362</v>
       </c>
       <c r="D154" s="2">
         <v>154</v>
@@ -4288,13 +4594,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>533</v>
+        <v>365</v>
       </c>
       <c r="D155" s="2">
         <v>155</v>
@@ -4302,13 +4608,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>263</v>
+        <v>367</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>534</v>
+        <v>368</v>
       </c>
       <c r="D156" s="2">
         <v>156</v>
@@ -4316,13 +4622,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>265</v>
+        <v>370</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>535</v>
+        <v>371</v>
       </c>
       <c r="D157" s="2">
         <v>157</v>
@@ -4330,13 +4636,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>266</v>
+        <v>372</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>267</v>
+        <v>373</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>536</v>
+        <v>374</v>
       </c>
       <c r="D158" s="2">
         <v>158</v>
@@ -4344,13 +4650,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>268</v>
+        <v>375</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>269</v>
+        <v>376</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>537</v>
+        <v>377</v>
       </c>
       <c r="D159" s="2">
         <v>159</v>
@@ -4358,13 +4664,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>271</v>
+        <v>379</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>538</v>
+        <v>380</v>
       </c>
       <c r="D160" s="2">
         <v>160</v>
@@ -4372,13 +4678,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>271</v>
+        <v>379</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>538</v>
+        <v>380</v>
       </c>
       <c r="D161" s="2">
         <v>161</v>
@@ -4386,13 +4692,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c r="D162" s="2">
         <v>162</v>
@@ -4400,13 +4706,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>275</v>
+        <v>384</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>276</v>
+        <v>385</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>539</v>
+        <v>386</v>
       </c>
       <c r="D163" s="2">
         <v>163</v>
@@ -4414,13 +4720,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>277</v>
+        <v>387</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>278</v>
+        <v>388</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>540</v>
+        <v>389</v>
       </c>
       <c r="D164" s="2">
         <v>164</v>
@@ -4428,13 +4734,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>279</v>
+        <v>390</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>280</v>
+        <v>391</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>541</v>
+        <v>392</v>
       </c>
       <c r="D165" s="2">
         <v>165</v>
@@ -4442,13 +4748,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>281</v>
+        <v>393</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>542</v>
+        <v>395</v>
       </c>
       <c r="D166" s="2">
         <v>166</v>
@@ -4456,13 +4762,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>283</v>
+        <v>396</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>284</v>
+        <v>397</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>543</v>
+        <v>398</v>
       </c>
       <c r="D167" s="2">
         <v>167</v>
@@ -4470,13 +4776,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>285</v>
+        <v>399</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>286</v>
+        <v>400</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>544</v>
+        <v>401</v>
       </c>
       <c r="D168" s="2">
         <v>168</v>
@@ -4484,13 +4790,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>287</v>
+        <v>402</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>288</v>
+        <v>403</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>545</v>
+        <v>404</v>
       </c>
       <c r="D169" s="2">
         <v>169</v>
@@ -4498,13 +4804,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>289</v>
+        <v>405</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>290</v>
+        <v>406</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>290</v>
+        <v>407</v>
       </c>
       <c r="D170" s="2">
         <v>170</v>
@@ -4512,13 +4818,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>291</v>
+        <v>408</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D171" s="2">
         <v>171</v>
@@ -4526,13 +4832,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>293</v>
+        <v>411</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>294</v>
+        <v>412</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>294</v>
+        <v>413</v>
       </c>
       <c r="D172" s="2">
         <v>172</v>
@@ -4540,13 +4846,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>295</v>
+        <v>414</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D173" s="2">
         <v>173</v>
@@ -4554,13 +4860,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>297</v>
+        <v>417</v>
       </c>
       <c r="D174" s="2">
         <v>174</v>
@@ -4568,13 +4874,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>298</v>
+        <v>418</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D175" s="2">
         <v>175</v>
@@ -4582,13 +4888,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="D176" s="2">
         <v>176</v>
@@ -4596,13 +4902,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D177" s="2">
         <v>177</v>
@@ -4610,13 +4916,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>303</v>
+        <v>425</v>
       </c>
       <c r="D178" s="2">
         <v>178</v>
@@ -4624,13 +4930,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D179" s="2">
         <v>179</v>
@@ -4638,13 +4944,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>305</v>
+        <v>427</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>306</v>
+        <v>428</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>306</v>
+        <v>429</v>
       </c>
       <c r="D180" s="2">
         <v>180</v>
@@ -4652,13 +4958,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>307</v>
+        <v>430</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D181" s="2">
         <v>181</v>
@@ -4666,13 +4972,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>308</v>
+        <v>431</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>309</v>
+        <v>432</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>309</v>
+        <v>433</v>
       </c>
       <c r="D182" s="2">
         <v>182</v>
@@ -4680,13 +4986,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>310</v>
+        <v>434</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D183" s="2">
         <v>183</v>
@@ -4694,13 +5000,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>311</v>
+        <v>435</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>312</v>
+        <v>436</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>546</v>
+        <v>437</v>
       </c>
       <c r="D184" s="2">
         <v>184</v>
@@ -4708,13 +5014,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>313</v>
+        <v>438</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D185" s="2">
         <v>185</v>
@@ -4722,13 +5028,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>315</v>
+        <v>440</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>547</v>
+        <v>441</v>
       </c>
       <c r="D186" s="2">
         <v>186</v>
@@ -4736,13 +5042,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>316</v>
+        <v>442</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D187" s="2">
         <v>187</v>
@@ -4750,13 +5056,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>548</v>
+        <v>445</v>
       </c>
       <c r="D188" s="2">
         <v>188</v>
@@ -4764,13 +5070,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>319</v>
+        <v>446</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D189" s="2">
         <v>189</v>
@@ -4778,13 +5084,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>320</v>
+        <v>447</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>321</v>
+        <v>448</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>549</v>
+        <v>449</v>
       </c>
       <c r="D190" s="2">
         <v>190</v>
@@ -4792,13 +5098,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>322</v>
+        <v>450</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D191" s="2">
         <v>191</v>
@@ -4806,13 +5112,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>324</v>
+        <v>452</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>550</v>
+        <v>453</v>
       </c>
       <c r="D192" s="2">
         <v>192</v>
@@ -4820,13 +5126,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D193" s="2">
         <v>193</v>
@@ -4834,13 +5140,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>327</v>
+        <v>456</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>327</v>
+        <v>457</v>
       </c>
       <c r="D194" s="2">
         <v>194</v>
@@ -4848,13 +5154,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>328</v>
+        <v>458</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D195" s="2">
         <v>195</v>
@@ -4862,13 +5168,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>329</v>
+        <v>459</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="D196" s="2">
         <v>196</v>
@@ -4876,13 +5182,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>331</v>
+        <v>462</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D197" s="2">
         <v>197</v>
@@ -4890,13 +5196,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>333</v>
+        <v>464</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="D198" s="2">
         <v>198</v>
@@ -4904,13 +5210,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D199" s="2">
         <v>199</v>
@@ -4918,13 +5224,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>336</v>
+        <v>468</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>336</v>
+        <v>469</v>
       </c>
       <c r="D200" s="2">
         <v>200</v>
@@ -4932,13 +5238,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>337</v>
+        <v>470</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D201" s="2">
         <v>201</v>
@@ -4946,13 +5252,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>338</v>
+        <v>471</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>339</v>
+        <v>472</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>552</v>
+        <v>473</v>
       </c>
       <c r="D202" s="2">
         <v>202</v>
@@ -4960,13 +5266,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>340</v>
+        <v>474</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D203" s="2">
         <v>203</v>
@@ -4974,13 +5280,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>341</v>
+        <v>475</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>342</v>
+        <v>476</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>342</v>
+        <v>476</v>
       </c>
       <c r="D204" s="2">
         <v>204</v>
@@ -4988,13 +5294,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>343</v>
+        <v>477</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>344</v>
+        <v>478</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>344</v>
+        <v>479</v>
       </c>
       <c r="D205" s="2">
         <v>205</v>
@@ -5002,13 +5308,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>345</v>
+        <v>480</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>346</v>
+        <v>481</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>553</v>
+        <v>482</v>
       </c>
       <c r="D206" s="2">
         <v>206</v>
@@ -5016,13 +5322,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>347</v>
+        <v>483</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>348</v>
+        <v>484</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>554</v>
+        <v>485</v>
       </c>
       <c r="D207" s="2">
         <v>207</v>
@@ -5030,13 +5336,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>349</v>
+        <v>486</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>350</v>
+        <v>487</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="D208" s="2">
         <v>208</v>
@@ -5044,13 +5350,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>351</v>
+        <v>489</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>352</v>
+        <v>490</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>556</v>
+        <v>491</v>
       </c>
       <c r="D209" s="2">
         <v>209</v>
@@ -5058,13 +5364,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>353</v>
+        <v>492</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>354</v>
+        <v>493</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>354</v>
+        <v>493</v>
       </c>
       <c r="D210" s="2">
         <v>210</v>
@@ -5072,13 +5378,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>355</v>
+        <v>494</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>356</v>
+        <v>495</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>356</v>
+        <v>496</v>
       </c>
       <c r="D211" s="2">
         <v>211</v>
@@ -5086,13 +5392,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>357</v>
+        <v>497</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>358</v>
+        <v>498</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>557</v>
+        <v>499</v>
       </c>
       <c r="D212" s="2">
         <v>212</v>
@@ -5100,13 +5406,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>359</v>
+        <v>500</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>360</v>
+        <v>501</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="D213" s="2">
         <v>213</v>
@@ -5114,13 +5420,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>361</v>
+        <v>503</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>362</v>
+        <v>504</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>559</v>
+        <v>505</v>
       </c>
       <c r="D214" s="2">
         <v>214</v>
@@ -5128,13 +5434,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>363</v>
+        <v>506</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>364</v>
+        <v>507</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>560</v>
+        <v>508</v>
       </c>
       <c r="D215" s="2">
         <v>215</v>
@@ -5142,13 +5448,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>365</v>
+        <v>509</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>366</v>
+        <v>510</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>561</v>
+        <v>511</v>
       </c>
       <c r="D216" s="2">
         <v>216</v>
@@ -5156,13 +5462,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>367</v>
+        <v>512</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>366</v>
+        <v>510</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>561</v>
+        <v>511</v>
       </c>
       <c r="D217" s="2">
         <v>217</v>
@@ -5170,13 +5476,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>368</v>
+        <v>513</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>369</v>
+        <v>514</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>369</v>
+        <v>515</v>
       </c>
       <c r="D218" s="2">
         <v>218</v>
@@ -5184,13 +5490,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>370</v>
+        <v>516</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>369</v>
+        <v>514</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>369</v>
+        <v>515</v>
       </c>
       <c r="D219" s="2">
         <v>219</v>
@@ -5198,13 +5504,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>371</v>
+        <v>517</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>372</v>
+        <v>518</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="D220" s="2">
         <v>220</v>
@@ -5212,13 +5518,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>373</v>
+        <v>520</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>374</v>
+        <v>521</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>563</v>
+        <v>522</v>
       </c>
       <c r="D221" s="2">
         <v>221</v>
@@ -5226,13 +5532,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>375</v>
+        <v>523</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>376</v>
+        <v>524</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="D222" s="2">
         <v>222</v>
@@ -5240,13 +5546,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>377</v>
+        <v>526</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="D223" s="2">
         <v>223</v>
@@ -5254,13 +5560,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>379</v>
+        <v>529</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="D224" s="2">
         <v>224</v>
@@ -5268,13 +5574,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>381</v>
+        <v>531</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>382</v>
+        <v>532</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>382</v>
+        <v>533</v>
       </c>
       <c r="D225" s="2">
         <v>225</v>
@@ -5282,13 +5588,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>383</v>
+        <v>534</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="D226" s="2">
         <v>226</v>
@@ -5296,13 +5602,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>385</v>
+        <v>537</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>386</v>
+        <v>538</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>386</v>
+        <v>539</v>
       </c>
       <c r="D227" s="2">
         <v>227</v>
@@ -5310,13 +5616,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>387</v>
+        <v>540</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>388</v>
+        <v>541</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>388</v>
+        <v>542</v>
       </c>
       <c r="D228" s="2">
         <v>228</v>
@@ -5324,13 +5630,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>389</v>
+        <v>543</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>390</v>
+        <v>544</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>390</v>
+        <v>545</v>
       </c>
       <c r="D229" s="2">
         <v>229</v>
@@ -5338,13 +5644,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>391</v>
+        <v>546</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>392</v>
+        <v>547</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="D230" s="2">
         <v>230</v>
@@ -5352,13 +5658,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>393</v>
+        <v>549</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>394</v>
+        <v>550</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="D231" s="2">
         <v>231</v>
@@ -5366,13 +5672,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>395</v>
+        <v>552</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>396</v>
+        <v>553</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D232" s="2">
         <v>232</v>
@@ -5380,13 +5686,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>398</v>
+        <v>556</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="D233" s="2">
         <v>233</v>
@@ -5394,13 +5700,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D234" s="2">
         <v>234</v>
@@ -5408,13 +5714,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>401</v>
+        <v>561</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>402</v>
+        <v>562</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D235" s="2">
         <v>235</v>
@@ -5422,13 +5728,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>403</v>
+        <v>564</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>404</v>
+        <v>565</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D236" s="2">
         <v>236</v>
@@ -5436,13 +5742,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>405</v>
+        <v>567</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>406</v>
+        <v>568</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D237" s="2">
         <v>237</v>
@@ -5450,13 +5756,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>407</v>
+        <v>570</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>408</v>
+        <v>571</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D238" s="2">
         <v>238</v>
@@ -5464,13 +5770,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>409</v>
+        <v>573</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>410</v>
+        <v>574</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D239" s="2">
         <v>239</v>
@@ -5478,13 +5784,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>411</v>
+        <v>576</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>412</v>
+        <v>577</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D240" s="2">
         <v>240</v>
@@ -5492,13 +5798,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>413</v>
+        <v>579</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>414</v>
+        <v>580</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D241" s="2">
         <v>241</v>
@@ -5506,13 +5812,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>415</v>
+        <v>582</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>416</v>
+        <v>583</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D242" s="2">
         <v>242</v>
@@ -5520,13 +5826,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>417</v>
+        <v>585</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>418</v>
+        <v>586</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D243" s="2">
         <v>243</v>
@@ -5534,13 +5840,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>419</v>
+        <v>588</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="D244" s="2">
         <v>244</v>
@@ -5548,13 +5854,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>420</v>
+        <v>589</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="D245" s="2">
         <v>245</v>
@@ -5562,13 +5868,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>421</v>
+        <v>590</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>422</v>
+        <v>591</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="D246" s="2">
         <v>246</v>
@@ -5576,13 +5882,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>423</v>
+        <v>593</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>424</v>
+        <v>594</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>424</v>
+        <v>595</v>
       </c>
       <c r="D247" s="2">
         <v>247</v>
@@ -5590,13 +5896,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>425</v>
+        <v>596</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>418</v>
+        <v>586</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D248" s="2">
         <v>248</v>
@@ -5604,13 +5910,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>426</v>
+        <v>597</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>427</v>
+        <v>598</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D249" s="2">
         <v>249</v>
@@ -5618,13 +5924,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>428</v>
+        <v>600</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>211</v>
+        <v>292</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>583</v>
+        <v>293</v>
       </c>
       <c r="D250" s="2">
         <v>250</v>
@@ -5632,16 +5938,492 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>429</v>
+        <v>601</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>584</v>
+        <v>365</v>
       </c>
       <c r="D251" s="2">
         <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D252" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D253" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D254" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D255" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D256" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D257" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D258" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D259" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D260" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D261" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D262" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D263" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D264" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D265" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D266" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D267" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D268" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D269" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D270" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D271" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D272" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D273" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D274" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D275" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D276" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D277" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D278" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D279" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D280" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D281" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D282" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D283" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D284" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D285" s="2">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
